--- a/맵 형태 개발 정리.xlsx
+++ b/맵 형태 개발 정리.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Moles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31360BA-5BB8-4CC4-A8B1-20E35A47539B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="31980" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,11 +125,190 @@
     <t>4. 한 번 열린문은 가까이 가면 다시 열리도록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>플레이 목표 : 끝까지 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 진입 전후 플레이 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 방 외부에서는 안 쪽 방을 창문으로만 어렴풋이 볼 수 있음. 조명이 꺼져 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 방 진입 시 바로 빠져나가지 못하도록 들어왔던 문의 잠금이 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 잠금이 완료 될 경우 조명이 켜짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적이 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적이 있는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2 붉은색 조명 + 사이렌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기습 형태의 적 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1 하얀색 밝은 조명 or 푸른 색 조명(아이템)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3 하얀색 밝은 조명에서 갑자기 불이 꺼지며 붉은 사이렌으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비중 ( 10 %)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비중 ( 80 %)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 색은 10 % 중에서도 더 낮은 확률 + 작은 방에서만 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 레어 아이템, 장비 or 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 형태 총 3가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 외계 생물체 2. 기지 내 경비 로봇 3. 주인공과 비슷한 스캐빈저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비중 45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 플레이 난이도를 나누어 총알을 처리할 수도 있을 것. 이 경우 제한 수량 기준으로 개발하는 것이 편할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어렴풋이 보이는 것으로 다음 방을 아주 조금은 예상 할 수 있음. (컴컴한 곳에서 움직임이 보인다던가, 아이템 상자가 보인다던가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보급 문제는 아직 미정. 총알과 연료를 어떻게 처리할까. ( 무한정 or 제한 수량을 두고 적이나 아이템 방으로 파밍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 외계 생물체 (숨겨진 굴, 구멍에서 튀어나옴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 위장형 터렛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 끄트머리 방에 도착, 다음 단계로 진행 씬 전환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 모두 제거시 사이렌 종료, 흰색 조명으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1 하얀색 밝은 조명 or 푸른 색 조명(아이템)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2 붉은색 조명 + 사이렌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-3 하얀색 밝은 조명에서 갑자기 불이 꺼지며 붉은 사이렌으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적이 있던 방은 모든 적이 제거되어야만 문을 열 수가 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀색은 체력 회복, 장비, 재화, 소비형 공격 무기(수류탄과 같은 느낌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이하, 이전 단계와 시스템은 동일. 다만 맵의 디자인을 변경, 좀 더 발전된 형태의 적이 섞여서 나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화는 두 가지 종류로 둘 것. 이번 플레이 안에서만 사용할 수 있는 재화, 다음 플레이를 위해 플레이어를 업그레이드 할 수 있는 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 미로에 진입 전에 정비할 수 있는 방 존재, 체력 회복, 재화를 이용한 장비 교체   자동 정비 로봇 같은 NPC. 여유가 된다면 레어하게 나오는 희귀상점 인간형 NPC도 좋을것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 끄트머리 방에 도착, 정비 후 보스방으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬 전환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 보스룸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 형태 고안, basic. 이를 기준으로 다른 방의 형태를 고안할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방의 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 총을 쏠 수는 있을 만큼 적과 자신간의 거리 확보. 모든 구간에서 그럴 필요는 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 어느 정도의 밀폐감 조성. Ex 낮은 천장, 좁은 통로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 어디선가 튀어나올지 모른다는 긴장감 조성. 구멍뚫린 바닥.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 개별 아이템이므로 추후 고려사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt; 방의 이벤트 요소를 추가하기, 최소 6개, 최대한 플레이를 단조롭지 않도록 하기 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -329,13 +502,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,6 +578,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -424,7 +630,7 @@
         <xdr:cNvPr id="7" name="왼쪽/오른쪽 화살표 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -487,7 +693,7 @@
         <xdr:cNvPr id="8" name="왼쪽/오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -550,7 +756,7 @@
         <xdr:cNvPr id="9" name="왼쪽/오른쪽 화살표 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -613,7 +819,7 @@
         <xdr:cNvPr id="10" name="왼쪽/오른쪽 화살표 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -676,7 +882,7 @@
         <xdr:cNvPr id="11" name="왼쪽/오른쪽 화살표 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -739,7 +945,7 @@
         <xdr:cNvPr id="12" name="왼쪽/오른쪽 화살표 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -802,7 +1008,7 @@
         <xdr:cNvPr id="13" name="왼쪽/오른쪽 화살표 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -865,7 +1071,7 @@
         <xdr:cNvPr id="14" name="왼쪽/오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -928,7 +1134,7 @@
         <xdr:cNvPr id="15" name="왼쪽/오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +1197,7 @@
         <xdr:cNvPr id="16" name="왼쪽/오른쪽 화살표 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1054,7 +1260,7 @@
         <xdr:cNvPr id="17" name="왼쪽/오른쪽 화살표 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +1323,7 @@
         <xdr:cNvPr id="18" name="왼쪽/오른쪽 화살표 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1180,7 +1386,7 @@
         <xdr:cNvPr id="19" name="왼쪽/오른쪽 화살표 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1449,7 @@
         <xdr:cNvPr id="20" name="왼쪽/오른쪽 화살표 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1512,7 @@
         <xdr:cNvPr id="21" name="왼쪽/오른쪽 화살표 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1575,7 @@
         <xdr:cNvPr id="22" name="왼쪽/오른쪽 화살표 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1432,7 +1638,7 @@
         <xdr:cNvPr id="23" name="왼쪽/오른쪽 화살표 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1701,7 @@
         <xdr:cNvPr id="24" name="왼쪽/오른쪽 화살표 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1764,7 @@
         <xdr:cNvPr id="26" name="왼쪽/오른쪽 화살표 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1827,7 @@
         <xdr:cNvPr id="27" name="왼쪽/오른쪽 화살표 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1684,7 +1890,7 @@
         <xdr:cNvPr id="28" name="왼쪽/오른쪽 화살표 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1953,7 @@
         <xdr:cNvPr id="29" name="왼쪽/오른쪽 화살표 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1810,7 +2016,7 @@
         <xdr:cNvPr id="30" name="왼쪽/오른쪽 화살표 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +2079,7 @@
         <xdr:cNvPr id="31" name="왼쪽/오른쪽 화살표 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +2142,7 @@
         <xdr:cNvPr id="32" name="왼쪽/오른쪽 화살표 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,7 +2205,7 @@
         <xdr:cNvPr id="33" name="왼쪽/오른쪽 화살표 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2268,7 @@
         <xdr:cNvPr id="34" name="왼쪽/오른쪽 화살표 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2331,7 @@
         <xdr:cNvPr id="35" name="왼쪽/오른쪽 화살표 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2394,7 @@
         <xdr:cNvPr id="36" name="왼쪽/오른쪽 화살표 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2457,7 @@
         <xdr:cNvPr id="37" name="왼쪽/오른쪽 화살표 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2520,7 @@
         <xdr:cNvPr id="38" name="왼쪽/오른쪽 화살표 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2583,7 @@
         <xdr:cNvPr id="39" name="왼쪽/오른쪽 화살표 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2440,7 +2646,7 @@
         <xdr:cNvPr id="40" name="왼쪽/오른쪽 화살표 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2709,7 @@
         <xdr:cNvPr id="41" name="왼쪽/오른쪽 화살표 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2772,7 @@
         <xdr:cNvPr id="42" name="왼쪽/오른쪽 화살표 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2835,7 @@
         <xdr:cNvPr id="43" name="왼쪽/오른쪽 화살표 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2898,7 @@
         <xdr:cNvPr id="44" name="왼쪽/오른쪽 화살표 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2755,7 +2961,7 @@
         <xdr:cNvPr id="45" name="왼쪽/오른쪽 화살표 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2818,7 +3024,7 @@
         <xdr:cNvPr id="46" name="왼쪽/오른쪽 화살표 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2881,7 +3087,7 @@
         <xdr:cNvPr id="47" name="왼쪽/오른쪽 화살표 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,7 +3150,7 @@
         <xdr:cNvPr id="48" name="왼쪽/오른쪽 화살표 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3213,7 @@
         <xdr:cNvPr id="49" name="왼쪽/오른쪽 화살표 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,7 +3276,7 @@
         <xdr:cNvPr id="50" name="왼쪽/오른쪽 화살표 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3133,7 +3339,7 @@
         <xdr:cNvPr id="51" name="왼쪽/오른쪽 화살표 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3196,7 +3402,7 @@
         <xdr:cNvPr id="52" name="왼쪽/오른쪽 화살표 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3465,7 @@
         <xdr:cNvPr id="53" name="왼쪽/오른쪽 화살표 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3528,7 @@
         <xdr:cNvPr id="54" name="왼쪽/오른쪽 화살표 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3385,7 +3591,7 @@
         <xdr:cNvPr id="56" name="순서도: 연결자 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3448,7 +3654,7 @@
         <xdr:cNvPr id="57" name="순서도: 연결자 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3511,7 +3717,7 @@
         <xdr:cNvPr id="58" name="순서도: 연결자 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3780,7 @@
         <xdr:cNvPr id="59" name="순서도: 연결자 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3637,7 +3843,7 @@
         <xdr:cNvPr id="60" name="순서도: 연결자 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3700,7 +3906,7 @@
         <xdr:cNvPr id="61" name="순서도: 연결자 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3763,7 +3969,7 @@
         <xdr:cNvPr id="62" name="순서도: 연결자 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3826,7 +4032,7 @@
         <xdr:cNvPr id="63" name="순서도: 연결자 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3889,7 +4095,7 @@
         <xdr:cNvPr id="64" name="순서도: 연결자 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3952,7 +4158,7 @@
         <xdr:cNvPr id="65" name="순서도: 연결자 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4015,7 +4221,7 @@
         <xdr:cNvPr id="67" name="직선 화살표 연결선 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4071,7 +4277,7 @@
         <xdr:cNvPr id="2" name="화살표: 오른쪽 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4B5519-B345-0239-5A11-B813719E869B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E4B5519-B345-0239-5A11-B813719E869B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4113,13 +4319,577 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3843618" y="19352559"/>
+          <a:ext cx="526676" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>208430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>163606</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>208430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="직선 화살표 연결선 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9520518" y="19348077"/>
+          <a:ext cx="526676" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="직선 화살표 연결선 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3765176" y="19363765"/>
+          <a:ext cx="1" cy="493059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="직선 화살표 연결선 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9412941" y="19352559"/>
+          <a:ext cx="1" cy="493059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="직선 화살표 연결선 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14590059" y="19352560"/>
+          <a:ext cx="1" cy="493059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="직선 화살표 연결선 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3765177" y="21470471"/>
+          <a:ext cx="1" cy="493059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>73960</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>129988</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="직선 화살표 연결선 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3839136" y="24032135"/>
+          <a:ext cx="526676" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>159124</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>2240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>2240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="직선 화살표 연결선 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572065" y="24038858"/>
+          <a:ext cx="526676" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>230841</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>230842</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>73959</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="직선 화살표 연결선 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3760694" y="24043341"/>
+          <a:ext cx="1" cy="493059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>230841</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>230842</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="직선 화살표 연결선 74"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9408459" y="24032135"/>
+          <a:ext cx="1" cy="493059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>230842</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>208430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>230843</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="직선 화살표 연결선 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14585577" y="24032136"/>
+          <a:ext cx="1" cy="493059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>230842</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>230843</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="직선 화살표 연결선 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3760695" y="26150047"/>
+          <a:ext cx="1" cy="493059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4157,7 +4927,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4229,7 +4999,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4402,11 +5172,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G6:BI74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G6:BS182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BT20" sqref="BT20"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BV73" sqref="BV73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5061,25 +5831,25 @@
       <c r="AM64" s="5"/>
       <c r="AN64" s="4"/>
     </row>
-    <row r="65" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="65" spans="12:40" x14ac:dyDescent="0.3">
       <c r="AB65" s="16"/>
       <c r="AF65" s="16"/>
       <c r="AJ65" s="16"/>
       <c r="AN65" s="16"/>
     </row>
-    <row r="66" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="66" spans="12:40" x14ac:dyDescent="0.3">
       <c r="AB66" s="16"/>
       <c r="AF66" s="16"/>
       <c r="AJ66" s="16"/>
       <c r="AN66" s="16"/>
     </row>
-    <row r="67" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="67" spans="12:40" x14ac:dyDescent="0.3">
       <c r="AB67" s="16"/>
       <c r="AF67" s="16"/>
       <c r="AJ67" s="16"/>
       <c r="AN67" s="16"/>
     </row>
-    <row r="68" spans="28:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="12:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AB68" s="16"/>
       <c r="AC68" s="3"/>
       <c r="AD68" s="5"/>
@@ -5094,25 +5864,25 @@
       <c r="AM68" s="5"/>
       <c r="AN68" s="4"/>
     </row>
-    <row r="69" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="69" spans="12:40" x14ac:dyDescent="0.3">
       <c r="AB69" s="16"/>
       <c r="AF69" s="16"/>
       <c r="AJ69" s="16"/>
       <c r="AN69" s="16"/>
     </row>
-    <row r="70" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="70" spans="12:40" x14ac:dyDescent="0.3">
       <c r="AB70" s="16"/>
       <c r="AF70" s="16"/>
       <c r="AJ70" s="16"/>
       <c r="AN70" s="16"/>
     </row>
-    <row r="71" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="71" spans="12:40" x14ac:dyDescent="0.3">
       <c r="AB71" s="16"/>
       <c r="AF71" s="16"/>
       <c r="AJ71" s="16"/>
       <c r="AN71" s="16"/>
     </row>
-    <row r="72" spans="28:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="12:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AB72" s="16"/>
       <c r="AC72" s="3"/>
       <c r="AD72" s="5"/>
@@ -5127,11 +5897,1456 @@
       <c r="AM72" s="5"/>
       <c r="AN72" s="4"/>
     </row>
-    <row r="73" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="73" spans="12:40" x14ac:dyDescent="0.3">
       <c r="AH73" s="2"/>
     </row>
-    <row r="74" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="74" spans="12:40" x14ac:dyDescent="0.3">
       <c r="AH74" s="16"/>
+    </row>
+    <row r="76" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="L76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="V77" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="L79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="L81" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="L83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="AT84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="L85" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="AT86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="P87" s="11"/>
+      <c r="T87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="P88" s="11"/>
+    </row>
+    <row r="89" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="P89" s="11"/>
+    </row>
+    <row r="90" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="P90" s="11"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="6"/>
+      <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
+      <c r="AD90" s="6"/>
+      <c r="AE90" s="6"/>
+      <c r="AF90" s="6"/>
+      <c r="AG90" s="6"/>
+      <c r="AH90" s="6"/>
+      <c r="AI90" s="6"/>
+      <c r="AJ90" s="6"/>
+      <c r="AK90" s="6"/>
+      <c r="AL90" s="6"/>
+      <c r="AM90" s="6"/>
+      <c r="AN90" s="6"/>
+    </row>
+    <row r="91" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="Q91" s="7"/>
+      <c r="AN91" s="9"/>
+      <c r="AO91" s="7"/>
+      <c r="AP91" s="8"/>
+      <c r="AQ91" s="8"/>
+      <c r="AR91" s="8"/>
+      <c r="AS91" s="8"/>
+      <c r="AT91" s="8"/>
+      <c r="AU91" s="8"/>
+      <c r="AV91" s="8"/>
+      <c r="AW91" s="8"/>
+      <c r="AX91" s="8"/>
+      <c r="AY91" s="8"/>
+      <c r="AZ91" s="8"/>
+      <c r="BA91" s="8"/>
+      <c r="BB91" s="8"/>
+      <c r="BC91" s="8"/>
+      <c r="BD91" s="8"/>
+      <c r="BE91" s="8"/>
+      <c r="BF91" s="8"/>
+      <c r="BG91" s="8"/>
+      <c r="BH91" s="8"/>
+      <c r="BI91" s="8"/>
+      <c r="BJ91" s="9"/>
+    </row>
+    <row r="92" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="Q92" s="10"/>
+      <c r="AN92" s="11"/>
+      <c r="BJ92" s="11"/>
+    </row>
+    <row r="93" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="Q93" s="10"/>
+      <c r="R93" t="s">
+        <v>32</v>
+      </c>
+      <c r="W93" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN93" s="11"/>
+      <c r="AP93" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU93" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ93" s="11"/>
+      <c r="BL93" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="Q94" s="10"/>
+      <c r="AN94" s="11"/>
+      <c r="BJ94" s="11"/>
+    </row>
+    <row r="95" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="L95" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK95" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF95" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="P96" s="11"/>
+      <c r="R96" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN96" s="11"/>
+      <c r="BJ96" s="11"/>
+    </row>
+    <row r="97" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="P97" s="11"/>
+      <c r="R97" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN97" s="11"/>
+      <c r="AP97" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ97" s="11"/>
+      <c r="BL97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="P98" s="11"/>
+      <c r="R98" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN98" s="11"/>
+      <c r="AP98" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ98" s="11"/>
+      <c r="BL98" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="P99" s="11"/>
+      <c r="AN99" s="11"/>
+      <c r="AP99" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV99" s="18"/>
+      <c r="AW99" s="18"/>
+      <c r="AX99">
+        <v>45</v>
+      </c>
+      <c r="BD99">
+        <v>10</v>
+      </c>
+      <c r="BJ99" s="11"/>
+      <c r="BL99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="P100" s="11"/>
+      <c r="AN100" s="11"/>
+      <c r="AP100" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ100" s="11"/>
+      <c r="BL100" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="Q101" s="7"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="8"/>
+      <c r="V101" s="8"/>
+      <c r="W101" s="8"/>
+      <c r="X101" s="8"/>
+      <c r="Y101" s="8"/>
+      <c r="Z101" s="8"/>
+      <c r="AA101" s="8"/>
+      <c r="AB101" s="8"/>
+      <c r="AC101" s="8"/>
+      <c r="AD101" s="8"/>
+      <c r="AE101" s="8"/>
+      <c r="AF101" s="8"/>
+      <c r="AG101" s="8"/>
+      <c r="AH101" s="8"/>
+      <c r="AI101" s="8"/>
+      <c r="AJ101" s="8"/>
+      <c r="AK101" s="8"/>
+      <c r="AL101" s="8"/>
+      <c r="AM101" s="8"/>
+      <c r="AN101" s="8"/>
+      <c r="AO101" s="8"/>
+      <c r="AP101" s="8"/>
+      <c r="AQ101" s="8"/>
+      <c r="AR101" s="8"/>
+      <c r="AS101" s="8"/>
+      <c r="AT101" s="8"/>
+      <c r="AU101" s="8"/>
+      <c r="AV101" s="8"/>
+      <c r="AW101" s="8"/>
+      <c r="AX101" s="8"/>
+      <c r="AY101" s="8"/>
+      <c r="AZ101" s="8"/>
+      <c r="BA101" s="8"/>
+      <c r="BB101" s="8"/>
+      <c r="BC101" s="8"/>
+      <c r="BD101" s="8"/>
+      <c r="BE101" s="8"/>
+      <c r="BF101" s="8"/>
+      <c r="BG101" s="8"/>
+      <c r="BH101" s="8"/>
+      <c r="BI101" s="8"/>
+      <c r="BJ101" s="8"/>
+    </row>
+    <row r="102" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="Q102" s="10"/>
+      <c r="R102" s="19"/>
+      <c r="AM102" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="Q103" s="10"/>
+      <c r="R103" s="19"/>
+    </row>
+    <row r="104" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="Q104" s="10"/>
+      <c r="R104" s="19"/>
+    </row>
+    <row r="105" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="L105" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="Q106" s="10"/>
+    </row>
+    <row r="107" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="Q107" s="10"/>
+    </row>
+    <row r="108" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="Q108" s="10"/>
+    </row>
+    <row r="109" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="L109" t="s">
+        <v>60</v>
+      </c>
+      <c r="P109" s="19"/>
+    </row>
+    <row r="110" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="P110" s="11"/>
+    </row>
+    <row r="111" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="P111" s="11"/>
+      <c r="R111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="P112" s="11"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
+      <c r="U112" s="6"/>
+      <c r="V112" s="6"/>
+      <c r="W112" s="6"/>
+      <c r="X112" s="6"/>
+      <c r="Y112" s="6"/>
+      <c r="Z112" s="6"/>
+      <c r="AA112" s="6"/>
+      <c r="AB112" s="6"/>
+      <c r="AC112" s="6"/>
+      <c r="AD112" s="6"/>
+      <c r="AE112" s="6"/>
+      <c r="AF112" s="6"/>
+      <c r="AG112" s="6"/>
+      <c r="AH112" s="6"/>
+      <c r="AI112" s="6"/>
+      <c r="AJ112" s="6"/>
+      <c r="AK112" s="6"/>
+      <c r="AL112" s="6"/>
+      <c r="AM112" s="6"/>
+      <c r="AN112" s="6"/>
+    </row>
+    <row r="113" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="Q113" s="7"/>
+      <c r="AN113" s="9"/>
+      <c r="AO113" s="7"/>
+      <c r="AP113" s="8"/>
+      <c r="AQ113" s="8"/>
+      <c r="AR113" s="8"/>
+      <c r="AS113" s="8"/>
+      <c r="AT113" s="8"/>
+      <c r="AU113" s="8"/>
+      <c r="AV113" s="8"/>
+      <c r="AW113" s="8"/>
+      <c r="AX113" s="8"/>
+      <c r="AY113" s="8"/>
+      <c r="AZ113" s="8"/>
+      <c r="BA113" s="8"/>
+      <c r="BB113" s="8"/>
+      <c r="BC113" s="8"/>
+      <c r="BD113" s="8"/>
+      <c r="BE113" s="8"/>
+      <c r="BF113" s="8"/>
+      <c r="BG113" s="8"/>
+      <c r="BH113" s="8"/>
+      <c r="BI113" s="8"/>
+      <c r="BJ113" s="9"/>
+    </row>
+    <row r="114" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="Q114" s="10"/>
+      <c r="AN114" s="11"/>
+      <c r="BJ114" s="11"/>
+    </row>
+    <row r="115" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="Q115" s="10"/>
+      <c r="R115" t="s">
+        <v>32</v>
+      </c>
+      <c r="W115" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN115" s="11"/>
+      <c r="AP115" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU115" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ115" s="11"/>
+      <c r="BL115" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS115" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="Q116" s="10"/>
+      <c r="AN116" s="11"/>
+      <c r="BJ116" s="11"/>
+    </row>
+    <row r="117" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="L117" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK117" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="P118" s="11"/>
+      <c r="AN118" s="11"/>
+      <c r="BJ118" s="11"/>
+    </row>
+    <row r="119" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="P119" s="11"/>
+      <c r="R119" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN119" s="11"/>
+      <c r="AP119" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ119" s="11"/>
+      <c r="BL119" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="P120" s="11"/>
+      <c r="R120" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN120" s="11"/>
+      <c r="AP120" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ120" s="11"/>
+      <c r="BL120" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="P121" s="11"/>
+      <c r="AN121" s="11"/>
+      <c r="AP121" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV121" s="18"/>
+      <c r="AW121" s="18"/>
+      <c r="AX121">
+        <v>45</v>
+      </c>
+      <c r="BD121">
+        <v>10</v>
+      </c>
+      <c r="BJ121" s="11"/>
+      <c r="BL121" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="P122" s="11"/>
+      <c r="AN122" s="11"/>
+      <c r="BJ122" s="11"/>
+    </row>
+    <row r="123" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="Q123" s="7"/>
+      <c r="R123" s="8"/>
+      <c r="S123" s="8"/>
+      <c r="T123" s="8"/>
+      <c r="U123" s="8"/>
+      <c r="V123" s="8"/>
+      <c r="W123" s="8"/>
+      <c r="X123" s="8"/>
+      <c r="Y123" s="8"/>
+      <c r="Z123" s="8"/>
+      <c r="AA123" s="8"/>
+      <c r="AB123" s="8"/>
+      <c r="AC123" s="8"/>
+      <c r="AD123" s="8"/>
+      <c r="AE123" s="8"/>
+      <c r="AF123" s="8"/>
+      <c r="AG123" s="8"/>
+      <c r="AH123" s="8"/>
+      <c r="AI123" s="8"/>
+      <c r="AJ123" s="8"/>
+      <c r="AK123" s="8"/>
+      <c r="AL123" s="8"/>
+      <c r="AM123" s="8"/>
+      <c r="AN123" s="8"/>
+      <c r="AO123" s="8"/>
+      <c r="AP123" s="8"/>
+      <c r="AQ123" s="8"/>
+      <c r="AR123" s="8"/>
+      <c r="AS123" s="8"/>
+      <c r="AT123" s="8"/>
+      <c r="AU123" s="8"/>
+      <c r="AV123" s="8"/>
+      <c r="AW123" s="8"/>
+      <c r="AX123" s="8"/>
+      <c r="AY123" s="8"/>
+      <c r="AZ123" s="8"/>
+      <c r="BA123" s="8"/>
+      <c r="BB123" s="8"/>
+      <c r="BC123" s="8"/>
+      <c r="BD123" s="8"/>
+      <c r="BE123" s="8"/>
+      <c r="BF123" s="8"/>
+      <c r="BG123" s="8"/>
+      <c r="BH123" s="8"/>
+      <c r="BI123" s="8"/>
+      <c r="BJ123" s="8"/>
+    </row>
+    <row r="124" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="Q124" s="10"/>
+      <c r="R124" s="19"/>
+    </row>
+    <row r="125" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="Q125" s="10"/>
+      <c r="R125" s="19"/>
+    </row>
+    <row r="126" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="Q126" s="10"/>
+      <c r="R126" s="19"/>
+    </row>
+    <row r="127" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="L127" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="P128" s="11"/>
+    </row>
+    <row r="129" spans="12:30" x14ac:dyDescent="0.3">
+      <c r="P129" s="11"/>
+      <c r="R129" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" spans="12:30" x14ac:dyDescent="0.3">
+      <c r="P130" s="11"/>
+    </row>
+    <row r="131" spans="12:30" x14ac:dyDescent="0.3">
+      <c r="P131" s="11"/>
+    </row>
+    <row r="132" spans="12:30" x14ac:dyDescent="0.3">
+      <c r="P132" s="11"/>
+    </row>
+    <row r="133" spans="12:30" x14ac:dyDescent="0.3">
+      <c r="P133" s="11"/>
+    </row>
+    <row r="134" spans="12:30" x14ac:dyDescent="0.3">
+      <c r="L134" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="143" spans="12:30" x14ac:dyDescent="0.3">
+      <c r="L143" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144" spans="12:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U144" s="20"/>
+      <c r="V144" s="20"/>
+      <c r="W144" s="20"/>
+      <c r="X144" s="20"/>
+      <c r="Y144" s="20"/>
+      <c r="Z144" s="20"/>
+      <c r="AA144" s="20"/>
+      <c r="AB144" s="20"/>
+      <c r="AC144" s="20"/>
+      <c r="AD144" s="20"/>
+    </row>
+    <row r="145" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L145" s="1"/>
+      <c r="M145" s="14"/>
+      <c r="N145" s="14"/>
+      <c r="O145" s="14"/>
+      <c r="P145" s="14"/>
+      <c r="Q145" s="14"/>
+      <c r="R145" s="14"/>
+      <c r="S145" s="14"/>
+      <c r="T145" s="14"/>
+      <c r="U145" s="19"/>
+      <c r="V145" s="19"/>
+      <c r="W145" s="19"/>
+      <c r="X145" s="19"/>
+      <c r="Y145" s="19"/>
+      <c r="Z145" s="19"/>
+      <c r="AA145" s="19"/>
+      <c r="AB145" s="19"/>
+      <c r="AC145" s="19"/>
+      <c r="AD145" s="19"/>
+      <c r="AE145" s="14"/>
+      <c r="AF145" s="14"/>
+      <c r="AG145" s="14"/>
+      <c r="AH145" s="14"/>
+      <c r="AI145" s="14"/>
+      <c r="AJ145" s="14"/>
+      <c r="AK145" s="14"/>
+      <c r="AL145" s="14"/>
+      <c r="AM145" s="2"/>
+    </row>
+    <row r="146" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L146" s="15"/>
+      <c r="M146" s="19"/>
+      <c r="N146" s="19"/>
+      <c r="O146" s="19"/>
+      <c r="P146" s="19"/>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="19"/>
+      <c r="S146" s="19"/>
+      <c r="T146" s="19"/>
+      <c r="U146" s="19"/>
+      <c r="V146" s="19"/>
+      <c r="W146" s="19"/>
+      <c r="X146" s="19"/>
+      <c r="Y146" s="19"/>
+      <c r="Z146" s="19"/>
+      <c r="AA146" s="19"/>
+      <c r="AB146" s="19"/>
+      <c r="AC146" s="19"/>
+      <c r="AD146" s="19"/>
+      <c r="AE146" s="19"/>
+      <c r="AF146" s="19"/>
+      <c r="AG146" s="19"/>
+      <c r="AH146" s="19"/>
+      <c r="AI146" s="19"/>
+      <c r="AJ146" s="19"/>
+      <c r="AK146" s="19"/>
+      <c r="AL146" s="19"/>
+      <c r="AM146" s="16"/>
+    </row>
+    <row r="147" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L147" s="15"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="19"/>
+      <c r="V147" s="19"/>
+      <c r="W147" s="19"/>
+      <c r="X147" s="19"/>
+      <c r="Y147" s="19"/>
+      <c r="Z147" s="19"/>
+      <c r="AA147" s="19"/>
+      <c r="AB147" s="19"/>
+      <c r="AC147" s="19"/>
+      <c r="AD147" s="19"/>
+      <c r="AE147" s="19"/>
+      <c r="AF147" s="19"/>
+      <c r="AG147" s="19"/>
+      <c r="AH147" s="19"/>
+      <c r="AI147" s="19"/>
+      <c r="AJ147" s="19"/>
+      <c r="AK147" s="19"/>
+      <c r="AL147" s="19"/>
+      <c r="AM147" s="16"/>
+    </row>
+    <row r="148" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L148" s="15"/>
+      <c r="M148" s="19"/>
+      <c r="N148" s="19"/>
+      <c r="O148" s="19"/>
+      <c r="P148" s="19"/>
+      <c r="Q148" s="19"/>
+      <c r="R148" s="19"/>
+      <c r="S148" s="19"/>
+      <c r="T148" s="19"/>
+      <c r="U148" s="19"/>
+      <c r="V148" s="19"/>
+      <c r="W148" s="19"/>
+      <c r="X148" s="19"/>
+      <c r="Y148" s="19"/>
+      <c r="Z148" s="19"/>
+      <c r="AA148" s="19"/>
+      <c r="AB148" s="19"/>
+      <c r="AC148" s="19"/>
+      <c r="AD148" s="19"/>
+      <c r="AE148" s="19"/>
+      <c r="AF148" s="19"/>
+      <c r="AG148" s="19"/>
+      <c r="AH148" s="19"/>
+      <c r="AI148" s="19"/>
+      <c r="AJ148" s="19"/>
+      <c r="AK148" s="19"/>
+      <c r="AL148" s="19"/>
+      <c r="AM148" s="16"/>
+    </row>
+    <row r="149" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L149" s="15"/>
+      <c r="M149" s="19"/>
+      <c r="N149" s="19"/>
+      <c r="O149" s="19"/>
+      <c r="P149" s="19"/>
+      <c r="Q149" s="19"/>
+      <c r="R149" s="19"/>
+      <c r="S149" s="19"/>
+      <c r="T149" s="19"/>
+      <c r="U149" s="19"/>
+      <c r="V149" s="19"/>
+      <c r="W149" s="19"/>
+      <c r="X149" s="19"/>
+      <c r="Y149" s="19"/>
+      <c r="Z149" s="19"/>
+      <c r="AA149" s="19"/>
+      <c r="AB149" s="19"/>
+      <c r="AC149" s="19"/>
+      <c r="AD149" s="19"/>
+      <c r="AE149" s="19"/>
+      <c r="AF149" s="19"/>
+      <c r="AG149" s="19"/>
+      <c r="AH149" s="19"/>
+      <c r="AI149" s="19"/>
+      <c r="AJ149" s="19"/>
+      <c r="AK149" s="19"/>
+      <c r="AL149" s="19"/>
+      <c r="AM149" s="16"/>
+    </row>
+    <row r="150" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L150" s="15"/>
+      <c r="M150" s="19"/>
+      <c r="N150" s="19"/>
+      <c r="O150" s="19"/>
+      <c r="P150" s="19"/>
+      <c r="Q150" s="19"/>
+      <c r="R150" s="19"/>
+      <c r="S150" s="19"/>
+      <c r="T150" s="19"/>
+      <c r="U150" s="19"/>
+      <c r="V150" s="19"/>
+      <c r="W150" s="19"/>
+      <c r="X150" s="19"/>
+      <c r="Y150" s="19"/>
+      <c r="Z150" s="19"/>
+      <c r="AA150" s="19"/>
+      <c r="AB150" s="19"/>
+      <c r="AC150" s="19"/>
+      <c r="AD150" s="19"/>
+      <c r="AE150" s="19"/>
+      <c r="AF150" s="19"/>
+      <c r="AG150" s="19"/>
+      <c r="AH150" s="19"/>
+      <c r="AI150" s="19"/>
+      <c r="AJ150" s="19"/>
+      <c r="AK150" s="19"/>
+      <c r="AL150" s="19"/>
+      <c r="AM150" s="16"/>
+    </row>
+    <row r="151" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L151" s="15"/>
+      <c r="M151" s="19"/>
+      <c r="N151" s="19"/>
+      <c r="O151" s="19"/>
+      <c r="P151" s="19"/>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="19"/>
+      <c r="S151" s="19"/>
+      <c r="T151" s="19"/>
+      <c r="U151" s="19"/>
+      <c r="V151" s="19"/>
+      <c r="W151" s="19"/>
+      <c r="X151" s="19"/>
+      <c r="Y151" s="19"/>
+      <c r="Z151" s="19"/>
+      <c r="AA151" s="19"/>
+      <c r="AB151" s="19"/>
+      <c r="AC151" s="19"/>
+      <c r="AD151" s="19"/>
+      <c r="AE151" s="19"/>
+      <c r="AF151" s="19"/>
+      <c r="AG151" s="19"/>
+      <c r="AH151" s="19"/>
+      <c r="AI151" s="19"/>
+      <c r="AJ151" s="19"/>
+      <c r="AK151" s="19"/>
+      <c r="AL151" s="19"/>
+      <c r="AM151" s="16"/>
+    </row>
+    <row r="152" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L152" s="15"/>
+      <c r="M152" s="19"/>
+      <c r="N152" s="19"/>
+      <c r="O152" s="19"/>
+      <c r="P152" s="19"/>
+      <c r="Q152" s="19"/>
+      <c r="R152" s="19"/>
+      <c r="S152" s="19"/>
+      <c r="T152" s="19"/>
+      <c r="U152" s="19"/>
+      <c r="V152" s="19"/>
+      <c r="W152" s="19"/>
+      <c r="X152" s="19"/>
+      <c r="Y152" s="19"/>
+      <c r="Z152" s="19"/>
+      <c r="AA152" s="19"/>
+      <c r="AB152" s="19"/>
+      <c r="AC152" s="19"/>
+      <c r="AD152" s="19"/>
+      <c r="AE152" s="19"/>
+      <c r="AF152" s="19"/>
+      <c r="AG152" s="19"/>
+      <c r="AH152" s="19"/>
+      <c r="AI152" s="19"/>
+      <c r="AJ152" s="19"/>
+      <c r="AK152" s="19"/>
+      <c r="AL152" s="19"/>
+      <c r="AM152" s="16"/>
+    </row>
+    <row r="153" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L153" s="15"/>
+      <c r="M153" s="19"/>
+      <c r="N153" s="19"/>
+      <c r="O153" s="19"/>
+      <c r="P153" s="19"/>
+      <c r="Q153" s="19"/>
+      <c r="R153" s="19"/>
+      <c r="S153" s="19"/>
+      <c r="T153" s="19"/>
+      <c r="U153" s="19"/>
+      <c r="V153" s="19"/>
+      <c r="W153" s="19"/>
+      <c r="X153" s="19"/>
+      <c r="Y153" s="19"/>
+      <c r="Z153" s="19"/>
+      <c r="AA153" s="19"/>
+      <c r="AB153" s="19"/>
+      <c r="AC153" s="19"/>
+      <c r="AD153" s="19"/>
+      <c r="AE153" s="19"/>
+      <c r="AF153" s="19"/>
+      <c r="AG153" s="19"/>
+      <c r="AH153" s="19"/>
+      <c r="AI153" s="19"/>
+      <c r="AJ153" s="19"/>
+      <c r="AK153" s="19"/>
+      <c r="AL153" s="19"/>
+      <c r="AM153" s="16"/>
+    </row>
+    <row r="154" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="K154" s="21"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19"/>
+      <c r="N154" s="19"/>
+      <c r="O154" s="19"/>
+      <c r="P154" s="19"/>
+      <c r="Q154" s="19"/>
+      <c r="R154" s="19"/>
+      <c r="S154" s="19"/>
+      <c r="T154" s="19"/>
+      <c r="U154" s="19"/>
+      <c r="V154" s="19"/>
+      <c r="W154" s="19"/>
+      <c r="X154" s="19"/>
+      <c r="Y154" s="19"/>
+      <c r="Z154" s="19"/>
+      <c r="AA154" s="19"/>
+      <c r="AB154" s="19"/>
+      <c r="AC154" s="19"/>
+      <c r="AD154" s="19"/>
+      <c r="AE154" s="19"/>
+      <c r="AF154" s="19"/>
+      <c r="AG154" s="19"/>
+      <c r="AH154" s="19"/>
+      <c r="AI154" s="19"/>
+      <c r="AJ154" s="19"/>
+      <c r="AK154" s="19"/>
+      <c r="AL154" s="19"/>
+      <c r="AM154" s="21"/>
+    </row>
+    <row r="155" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="K155" s="21"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="19"/>
+      <c r="N155" s="19"/>
+      <c r="O155" s="19"/>
+      <c r="P155" s="19"/>
+      <c r="Q155" s="19"/>
+      <c r="R155" s="19"/>
+      <c r="S155" s="19"/>
+      <c r="T155" s="19"/>
+      <c r="U155" s="19"/>
+      <c r="V155" s="19"/>
+      <c r="W155" s="19"/>
+      <c r="X155" s="19"/>
+      <c r="Y155" s="19"/>
+      <c r="Z155" s="19"/>
+      <c r="AA155" s="19"/>
+      <c r="AB155" s="19"/>
+      <c r="AC155" s="19"/>
+      <c r="AD155" s="19"/>
+      <c r="AE155" s="19"/>
+      <c r="AF155" s="19"/>
+      <c r="AG155" s="19"/>
+      <c r="AH155" s="19"/>
+      <c r="AI155" s="19"/>
+      <c r="AJ155" s="19"/>
+      <c r="AK155" s="19"/>
+      <c r="AL155" s="19"/>
+      <c r="AM155" s="21"/>
+    </row>
+    <row r="156" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="K156" s="21"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19"/>
+      <c r="N156" s="19"/>
+      <c r="O156" s="19"/>
+      <c r="P156" s="19"/>
+      <c r="Q156" s="19"/>
+      <c r="R156" s="19"/>
+      <c r="S156" s="19"/>
+      <c r="T156" s="19"/>
+      <c r="U156" s="19"/>
+      <c r="V156" s="19"/>
+      <c r="W156" s="19"/>
+      <c r="X156" s="19"/>
+      <c r="Y156" s="19"/>
+      <c r="Z156" s="19"/>
+      <c r="AA156" s="19"/>
+      <c r="AB156" s="19"/>
+      <c r="AC156" s="19"/>
+      <c r="AD156" s="19"/>
+      <c r="AE156" s="19"/>
+      <c r="AF156" s="19"/>
+      <c r="AG156" s="19"/>
+      <c r="AH156" s="19"/>
+      <c r="AI156" s="19"/>
+      <c r="AJ156" s="19"/>
+      <c r="AK156" s="19"/>
+      <c r="AL156" s="19"/>
+      <c r="AM156" s="21"/>
+    </row>
+    <row r="157" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="K157" s="21"/>
+      <c r="L157" s="19"/>
+      <c r="M157" s="19"/>
+      <c r="N157" s="19"/>
+      <c r="O157" s="19"/>
+      <c r="P157" s="19"/>
+      <c r="Q157" s="19"/>
+      <c r="R157" s="19"/>
+      <c r="S157" s="19"/>
+      <c r="T157" s="19"/>
+      <c r="U157" s="19"/>
+      <c r="V157" s="19"/>
+      <c r="W157" s="19"/>
+      <c r="X157" s="19"/>
+      <c r="Y157" s="19"/>
+      <c r="Z157" s="19"/>
+      <c r="AA157" s="19"/>
+      <c r="AB157" s="19"/>
+      <c r="AC157" s="19"/>
+      <c r="AD157" s="19"/>
+      <c r="AE157" s="19"/>
+      <c r="AF157" s="19"/>
+      <c r="AG157" s="19"/>
+      <c r="AH157" s="19"/>
+      <c r="AI157" s="19"/>
+      <c r="AJ157" s="19"/>
+      <c r="AK157" s="19"/>
+      <c r="AL157" s="19"/>
+      <c r="AM157" s="21"/>
+    </row>
+    <row r="158" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="K158" s="21"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19"/>
+      <c r="N158" s="19"/>
+      <c r="O158" s="19"/>
+      <c r="P158" s="19"/>
+      <c r="Q158" s="19"/>
+      <c r="R158" s="19"/>
+      <c r="S158" s="19"/>
+      <c r="T158" s="19"/>
+      <c r="U158" s="19"/>
+      <c r="V158" s="19"/>
+      <c r="W158" s="19"/>
+      <c r="X158" s="19"/>
+      <c r="Y158" s="19"/>
+      <c r="Z158" s="19"/>
+      <c r="AA158" s="19"/>
+      <c r="AB158" s="19"/>
+      <c r="AC158" s="19"/>
+      <c r="AD158" s="19"/>
+      <c r="AE158" s="19"/>
+      <c r="AF158" s="19"/>
+      <c r="AG158" s="19"/>
+      <c r="AH158" s="19"/>
+      <c r="AI158" s="19"/>
+      <c r="AJ158" s="19"/>
+      <c r="AK158" s="19"/>
+      <c r="AL158" s="19"/>
+      <c r="AM158" s="21"/>
+    </row>
+    <row r="159" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="K159" s="21"/>
+      <c r="L159" s="19"/>
+      <c r="M159" s="19"/>
+      <c r="N159" s="19"/>
+      <c r="O159" s="19"/>
+      <c r="P159" s="19"/>
+      <c r="Q159" s="19"/>
+      <c r="R159" s="19"/>
+      <c r="S159" s="19"/>
+      <c r="T159" s="19"/>
+      <c r="U159" s="19"/>
+      <c r="V159" s="19"/>
+      <c r="W159" s="19"/>
+      <c r="X159" s="19"/>
+      <c r="Y159" s="19"/>
+      <c r="Z159" s="19"/>
+      <c r="AA159" s="19"/>
+      <c r="AB159" s="19"/>
+      <c r="AC159" s="19"/>
+      <c r="AD159" s="19"/>
+      <c r="AE159" s="19"/>
+      <c r="AF159" s="19"/>
+      <c r="AG159" s="19"/>
+      <c r="AH159" s="19"/>
+      <c r="AI159" s="19"/>
+      <c r="AJ159" s="19"/>
+      <c r="AK159" s="19"/>
+      <c r="AL159" s="19"/>
+      <c r="AM159" s="21"/>
+    </row>
+    <row r="160" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="K160" s="21"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="19"/>
+      <c r="N160" s="19"/>
+      <c r="O160" s="19"/>
+      <c r="P160" s="19"/>
+      <c r="Q160" s="19"/>
+      <c r="R160" s="19"/>
+      <c r="S160" s="19"/>
+      <c r="T160" s="19"/>
+      <c r="U160" s="19"/>
+      <c r="V160" s="19"/>
+      <c r="W160" s="19"/>
+      <c r="X160" s="19"/>
+      <c r="Y160" s="19"/>
+      <c r="Z160" s="19"/>
+      <c r="AA160" s="19"/>
+      <c r="AB160" s="19"/>
+      <c r="AC160" s="19"/>
+      <c r="AD160" s="19"/>
+      <c r="AE160" s="19"/>
+      <c r="AF160" s="19"/>
+      <c r="AG160" s="19"/>
+      <c r="AH160" s="19"/>
+      <c r="AI160" s="19"/>
+      <c r="AJ160" s="19"/>
+      <c r="AK160" s="19"/>
+      <c r="AL160" s="19"/>
+      <c r="AM160" s="21"/>
+    </row>
+    <row r="161" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="K161" s="21"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19"/>
+      <c r="N161" s="19"/>
+      <c r="O161" s="19"/>
+      <c r="P161" s="19"/>
+      <c r="Q161" s="19"/>
+      <c r="R161" s="19"/>
+      <c r="S161" s="19"/>
+      <c r="T161" s="19"/>
+      <c r="U161" s="19"/>
+      <c r="V161" s="19"/>
+      <c r="W161" s="19"/>
+      <c r="X161" s="19"/>
+      <c r="Y161" s="19"/>
+      <c r="Z161" s="19"/>
+      <c r="AA161" s="19"/>
+      <c r="AB161" s="19"/>
+      <c r="AC161" s="19"/>
+      <c r="AD161" s="19"/>
+      <c r="AE161" s="19"/>
+      <c r="AF161" s="19"/>
+      <c r="AG161" s="19"/>
+      <c r="AH161" s="19"/>
+      <c r="AI161" s="19"/>
+      <c r="AJ161" s="19"/>
+      <c r="AK161" s="19"/>
+      <c r="AL161" s="19"/>
+      <c r="AM161" s="21"/>
+    </row>
+    <row r="162" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="K162" s="21"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="19"/>
+      <c r="N162" s="19"/>
+      <c r="O162" s="19"/>
+      <c r="P162" s="19"/>
+      <c r="Q162" s="19"/>
+      <c r="R162" s="19"/>
+      <c r="S162" s="19"/>
+      <c r="T162" s="19"/>
+      <c r="U162" s="19"/>
+      <c r="V162" s="19"/>
+      <c r="W162" s="19"/>
+      <c r="X162" s="19"/>
+      <c r="Y162" s="19"/>
+      <c r="Z162" s="19"/>
+      <c r="AA162" s="19"/>
+      <c r="AB162" s="19"/>
+      <c r="AC162" s="19"/>
+      <c r="AD162" s="19"/>
+      <c r="AE162" s="19"/>
+      <c r="AF162" s="19"/>
+      <c r="AG162" s="19"/>
+      <c r="AH162" s="19"/>
+      <c r="AI162" s="19"/>
+      <c r="AJ162" s="19"/>
+      <c r="AK162" s="19"/>
+      <c r="AL162" s="19"/>
+      <c r="AM162" s="21"/>
+    </row>
+    <row r="163" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="K163" s="21"/>
+      <c r="L163" s="19"/>
+      <c r="M163" s="19"/>
+      <c r="N163" s="19"/>
+      <c r="O163" s="19"/>
+      <c r="P163" s="19"/>
+      <c r="Q163" s="19"/>
+      <c r="R163" s="19"/>
+      <c r="S163" s="19"/>
+      <c r="T163" s="19"/>
+      <c r="U163" s="19"/>
+      <c r="V163" s="19"/>
+      <c r="W163" s="19"/>
+      <c r="X163" s="19"/>
+      <c r="Y163" s="19"/>
+      <c r="Z163" s="19"/>
+      <c r="AA163" s="19"/>
+      <c r="AB163" s="19"/>
+      <c r="AC163" s="19"/>
+      <c r="AD163" s="19"/>
+      <c r="AE163" s="19"/>
+      <c r="AF163" s="19"/>
+      <c r="AG163" s="19"/>
+      <c r="AH163" s="19"/>
+      <c r="AI163" s="19"/>
+      <c r="AJ163" s="19"/>
+      <c r="AK163" s="19"/>
+      <c r="AL163" s="19"/>
+      <c r="AM163" s="21"/>
+    </row>
+    <row r="164" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L164" s="15"/>
+      <c r="M164" s="19"/>
+      <c r="N164" s="19"/>
+      <c r="O164" s="19"/>
+      <c r="P164" s="19"/>
+      <c r="Q164" s="19"/>
+      <c r="R164" s="19"/>
+      <c r="S164" s="19"/>
+      <c r="T164" s="19"/>
+      <c r="U164" s="19"/>
+      <c r="V164" s="19"/>
+      <c r="W164" s="19"/>
+      <c r="X164" s="19"/>
+      <c r="Y164" s="19"/>
+      <c r="Z164" s="19"/>
+      <c r="AA164" s="19"/>
+      <c r="AB164" s="19"/>
+      <c r="AC164" s="19"/>
+      <c r="AD164" s="19"/>
+      <c r="AE164" s="19"/>
+      <c r="AF164" s="19"/>
+      <c r="AG164" s="19"/>
+      <c r="AH164" s="19"/>
+      <c r="AI164" s="19"/>
+      <c r="AJ164" s="19"/>
+      <c r="AK164" s="19"/>
+      <c r="AL164" s="19"/>
+      <c r="AM164" s="16"/>
+    </row>
+    <row r="165" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L165" s="15"/>
+      <c r="M165" s="19"/>
+      <c r="N165" s="19"/>
+      <c r="O165" s="19"/>
+      <c r="P165" s="19"/>
+      <c r="Q165" s="19"/>
+      <c r="R165" s="19"/>
+      <c r="S165" s="19"/>
+      <c r="T165" s="19"/>
+      <c r="U165" s="19"/>
+      <c r="V165" s="19"/>
+      <c r="W165" s="19"/>
+      <c r="X165" s="19"/>
+      <c r="Y165" s="19"/>
+      <c r="Z165" s="19"/>
+      <c r="AA165" s="19"/>
+      <c r="AB165" s="19"/>
+      <c r="AC165" s="19"/>
+      <c r="AD165" s="19"/>
+      <c r="AE165" s="19"/>
+      <c r="AF165" s="19"/>
+      <c r="AG165" s="19"/>
+      <c r="AH165" s="19"/>
+      <c r="AI165" s="19"/>
+      <c r="AJ165" s="19"/>
+      <c r="AK165" s="19"/>
+      <c r="AL165" s="19"/>
+      <c r="AM165" s="16"/>
+    </row>
+    <row r="166" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L166" s="15"/>
+      <c r="M166" s="19"/>
+      <c r="N166" s="19"/>
+      <c r="O166" s="19"/>
+      <c r="P166" s="19"/>
+      <c r="Q166" s="19"/>
+      <c r="R166" s="19"/>
+      <c r="S166" s="19"/>
+      <c r="T166" s="19"/>
+      <c r="U166" s="19"/>
+      <c r="V166" s="19"/>
+      <c r="W166" s="19"/>
+      <c r="X166" s="19"/>
+      <c r="Y166" s="19"/>
+      <c r="Z166" s="19"/>
+      <c r="AA166" s="19"/>
+      <c r="AB166" s="19"/>
+      <c r="AC166" s="19"/>
+      <c r="AD166" s="19"/>
+      <c r="AE166" s="19"/>
+      <c r="AF166" s="19"/>
+      <c r="AG166" s="19"/>
+      <c r="AH166" s="19"/>
+      <c r="AI166" s="19"/>
+      <c r="AJ166" s="19"/>
+      <c r="AK166" s="19"/>
+      <c r="AL166" s="19"/>
+      <c r="AM166" s="16"/>
+    </row>
+    <row r="167" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L167" s="15"/>
+      <c r="M167" s="19"/>
+      <c r="N167" s="19"/>
+      <c r="O167" s="19"/>
+      <c r="P167" s="19"/>
+      <c r="Q167" s="19"/>
+      <c r="R167" s="19"/>
+      <c r="S167" s="19"/>
+      <c r="T167" s="19"/>
+      <c r="U167" s="19"/>
+      <c r="V167" s="19"/>
+      <c r="W167" s="19"/>
+      <c r="X167" s="19"/>
+      <c r="Y167" s="19"/>
+      <c r="Z167" s="19"/>
+      <c r="AA167" s="19"/>
+      <c r="AB167" s="19"/>
+      <c r="AC167" s="19"/>
+      <c r="AD167" s="19"/>
+      <c r="AE167" s="19"/>
+      <c r="AF167" s="19"/>
+      <c r="AG167" s="19"/>
+      <c r="AH167" s="19"/>
+      <c r="AI167" s="19"/>
+      <c r="AJ167" s="19"/>
+      <c r="AK167" s="19"/>
+      <c r="AL167" s="19"/>
+      <c r="AM167" s="16"/>
+    </row>
+    <row r="168" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L168" s="15"/>
+      <c r="M168" s="19"/>
+      <c r="N168" s="19"/>
+      <c r="O168" s="19"/>
+      <c r="P168" s="19"/>
+      <c r="Q168" s="19"/>
+      <c r="R168" s="19"/>
+      <c r="S168" s="19"/>
+      <c r="T168" s="19"/>
+      <c r="U168" s="19"/>
+      <c r="V168" s="19"/>
+      <c r="W168" s="19"/>
+      <c r="X168" s="19"/>
+      <c r="Y168" s="19"/>
+      <c r="Z168" s="19"/>
+      <c r="AA168" s="19"/>
+      <c r="AB168" s="19"/>
+      <c r="AC168" s="19"/>
+      <c r="AD168" s="19"/>
+      <c r="AE168" s="19"/>
+      <c r="AF168" s="19"/>
+      <c r="AG168" s="19"/>
+      <c r="AH168" s="19"/>
+      <c r="AI168" s="19"/>
+      <c r="AJ168" s="19"/>
+      <c r="AK168" s="19"/>
+      <c r="AL168" s="19"/>
+      <c r="AM168" s="16"/>
+    </row>
+    <row r="169" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L169" s="15"/>
+      <c r="M169" s="19"/>
+      <c r="N169" s="19"/>
+      <c r="O169" s="19"/>
+      <c r="P169" s="19"/>
+      <c r="Q169" s="19"/>
+      <c r="R169" s="19"/>
+      <c r="S169" s="19"/>
+      <c r="T169" s="19"/>
+      <c r="U169" s="19"/>
+      <c r="V169" s="19"/>
+      <c r="W169" s="19"/>
+      <c r="X169" s="19"/>
+      <c r="Y169" s="19"/>
+      <c r="Z169" s="19"/>
+      <c r="AA169" s="19"/>
+      <c r="AB169" s="19"/>
+      <c r="AC169" s="19"/>
+      <c r="AD169" s="19"/>
+      <c r="AE169" s="19"/>
+      <c r="AF169" s="19"/>
+      <c r="AG169" s="19"/>
+      <c r="AH169" s="19"/>
+      <c r="AI169" s="19"/>
+      <c r="AJ169" s="19"/>
+      <c r="AK169" s="19"/>
+      <c r="AL169" s="19"/>
+      <c r="AM169" s="16"/>
+    </row>
+    <row r="170" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L170" s="15"/>
+      <c r="M170" s="19"/>
+      <c r="N170" s="19"/>
+      <c r="O170" s="19"/>
+      <c r="P170" s="19"/>
+      <c r="Q170" s="19"/>
+      <c r="R170" s="19"/>
+      <c r="S170" s="19"/>
+      <c r="T170" s="19"/>
+      <c r="U170" s="19"/>
+      <c r="V170" s="19"/>
+      <c r="W170" s="19"/>
+      <c r="X170" s="19"/>
+      <c r="Y170" s="19"/>
+      <c r="Z170" s="19"/>
+      <c r="AA170" s="19"/>
+      <c r="AB170" s="19"/>
+      <c r="AC170" s="19"/>
+      <c r="AD170" s="19"/>
+      <c r="AE170" s="19"/>
+      <c r="AF170" s="19"/>
+      <c r="AG170" s="19"/>
+      <c r="AH170" s="19"/>
+      <c r="AI170" s="19"/>
+      <c r="AJ170" s="19"/>
+      <c r="AK170" s="19"/>
+      <c r="AL170" s="19"/>
+      <c r="AM170" s="16"/>
+    </row>
+    <row r="171" spans="11:39" x14ac:dyDescent="0.3">
+      <c r="L171" s="15"/>
+      <c r="M171" s="19"/>
+      <c r="N171" s="19"/>
+      <c r="O171" s="19"/>
+      <c r="P171" s="19"/>
+      <c r="Q171" s="19"/>
+      <c r="R171" s="19"/>
+      <c r="S171" s="19"/>
+      <c r="T171" s="19"/>
+      <c r="U171" s="19"/>
+      <c r="V171" s="19"/>
+      <c r="W171" s="19"/>
+      <c r="X171" s="19"/>
+      <c r="Y171" s="19"/>
+      <c r="Z171" s="19"/>
+      <c r="AA171" s="19"/>
+      <c r="AB171" s="19"/>
+      <c r="AC171" s="19"/>
+      <c r="AD171" s="19"/>
+      <c r="AE171" s="19"/>
+      <c r="AF171" s="19"/>
+      <c r="AG171" s="19"/>
+      <c r="AH171" s="19"/>
+      <c r="AI171" s="19"/>
+      <c r="AJ171" s="19"/>
+      <c r="AK171" s="19"/>
+      <c r="AL171" s="19"/>
+      <c r="AM171" s="16"/>
+    </row>
+    <row r="172" spans="11:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L172" s="3"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="5"/>
+      <c r="O172" s="5"/>
+      <c r="P172" s="5"/>
+      <c r="Q172" s="5"/>
+      <c r="R172" s="5"/>
+      <c r="S172" s="5"/>
+      <c r="T172" s="5"/>
+      <c r="U172" s="20"/>
+      <c r="V172" s="20"/>
+      <c r="W172" s="20"/>
+      <c r="X172" s="20"/>
+      <c r="Y172" s="20"/>
+      <c r="Z172" s="20"/>
+      <c r="AA172" s="20"/>
+      <c r="AB172" s="20"/>
+      <c r="AC172" s="20"/>
+      <c r="AD172" s="20"/>
+      <c r="AE172" s="5"/>
+      <c r="AF172" s="5"/>
+      <c r="AG172" s="5"/>
+      <c r="AH172" s="5"/>
+      <c r="AI172" s="5"/>
+      <c r="AJ172" s="5"/>
+      <c r="AK172" s="5"/>
+      <c r="AL172" s="5"/>
+      <c r="AM172" s="4"/>
+    </row>
+    <row r="179" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L179" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="180" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L180" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="181" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L181" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="182" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L182" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5142,7 +7357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5155,7 +7370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/맵 형태 개발 정리.xlsx
+++ b/맵 형태 개발 정리.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Moles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD10EBA-DBE6-455E-B614-A0750EC03774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="35100" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
   <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,13 +305,105 @@
   </si>
   <si>
     <t>&gt;&gt;&gt;&gt;&gt;&gt; 방의 이벤트 요소를 추가하기, 최소 6개, 최대한 플레이를 단조롭지 않도록 하기 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용히 소리없이 불을 끄고 지나가야하는 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간에 거대한 알 or 중간 보스가 자고 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리를 내거나 빛을 너무 많이 쬐게 하면 깨어나서 공격함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 게임에서 성장의 요소가 있는가…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 방마다 성장을 하는지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(뛰면 안됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 방 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 정사각형 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진입 시 대형 아군 조립 중.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품 조립을 공격받는 중. 이를 잘 지켜내면 체력이 높은 거대한 실험 병기가 아군으로 참전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상당히 많은 적을 해치움 또는 큰 적을 해치움 그 후 파괴, 이렇게 두 가지 종류로 예상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기선 깨울 경우 생물체 아이템 다량 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양 측 진영에 대한 대규모 자원 획득 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 정사각형 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 로봇 형 적 터렛이 사방에서 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알맞은 엄폐물을 골라야 데미지를 받지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사방에 터렛들이 있고 공격하는 터렛이 매번 바뀜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바뀔 때마다 빠르게 다른 엄폐물을 이용해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄폐물이 파괴될지는 고민중..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 엄폐물이 올라오는 것도 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도는 점점 빨라지다가 과부하로 터렛 파괴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -526,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,13 +682,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,7 +731,7 @@
         <xdr:cNvPr id="7" name="왼쪽/오른쪽 화살표 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -693,7 +794,7 @@
         <xdr:cNvPr id="8" name="왼쪽/오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -756,7 +857,7 @@
         <xdr:cNvPr id="9" name="왼쪽/오른쪽 화살표 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -819,7 +920,7 @@
         <xdr:cNvPr id="10" name="왼쪽/오른쪽 화살표 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -882,7 +983,7 @@
         <xdr:cNvPr id="11" name="왼쪽/오른쪽 화살표 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -945,7 +1046,7 @@
         <xdr:cNvPr id="12" name="왼쪽/오른쪽 화살표 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1008,7 +1109,7 @@
         <xdr:cNvPr id="13" name="왼쪽/오른쪽 화살표 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1172,7 @@
         <xdr:cNvPr id="14" name="왼쪽/오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1134,7 +1235,7 @@
         <xdr:cNvPr id="15" name="왼쪽/오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1298,7 @@
         <xdr:cNvPr id="16" name="왼쪽/오른쪽 화살표 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1260,7 +1361,7 @@
         <xdr:cNvPr id="17" name="왼쪽/오른쪽 화살표 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1424,7 @@
         <xdr:cNvPr id="18" name="왼쪽/오른쪽 화살표 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1487,7 @@
         <xdr:cNvPr id="19" name="왼쪽/오른쪽 화살표 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1449,7 +1550,7 @@
         <xdr:cNvPr id="20" name="왼쪽/오른쪽 화살표 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1613,7 @@
         <xdr:cNvPr id="21" name="왼쪽/오른쪽 화살표 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1676,7 @@
         <xdr:cNvPr id="22" name="왼쪽/오른쪽 화살표 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1739,7 @@
         <xdr:cNvPr id="23" name="왼쪽/오른쪽 화살표 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1802,7 @@
         <xdr:cNvPr id="24" name="왼쪽/오른쪽 화살표 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1865,7 @@
         <xdr:cNvPr id="26" name="왼쪽/오른쪽 화살표 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1928,7 @@
         <xdr:cNvPr id="27" name="왼쪽/오른쪽 화살표 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1991,7 @@
         <xdr:cNvPr id="28" name="왼쪽/오른쪽 화살표 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +2054,7 @@
         <xdr:cNvPr id="29" name="왼쪽/오른쪽 화살표 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,7 +2117,7 @@
         <xdr:cNvPr id="30" name="왼쪽/오른쪽 화살표 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2180,7 @@
         <xdr:cNvPr id="31" name="왼쪽/오른쪽 화살표 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2243,7 @@
         <xdr:cNvPr id="32" name="왼쪽/오른쪽 화살표 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2306,7 @@
         <xdr:cNvPr id="33" name="왼쪽/오른쪽 화살표 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2369,7 @@
         <xdr:cNvPr id="34" name="왼쪽/오른쪽 화살표 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2432,7 @@
         <xdr:cNvPr id="35" name="왼쪽/오른쪽 화살표 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2495,7 @@
         <xdr:cNvPr id="36" name="왼쪽/오른쪽 화살표 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2558,7 @@
         <xdr:cNvPr id="37" name="왼쪽/오른쪽 화살표 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2621,7 @@
         <xdr:cNvPr id="38" name="왼쪽/오른쪽 화살표 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2684,7 @@
         <xdr:cNvPr id="39" name="왼쪽/오른쪽 화살표 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2747,7 @@
         <xdr:cNvPr id="40" name="왼쪽/오른쪽 화살표 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2810,7 @@
         <xdr:cNvPr id="41" name="왼쪽/오른쪽 화살표 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2772,7 +2873,7 @@
         <xdr:cNvPr id="42" name="왼쪽/오른쪽 화살표 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2936,7 @@
         <xdr:cNvPr id="43" name="왼쪽/오른쪽 화살표 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2898,7 +2999,7 @@
         <xdr:cNvPr id="44" name="왼쪽/오른쪽 화살표 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2961,7 +3062,7 @@
         <xdr:cNvPr id="45" name="왼쪽/오른쪽 화살표 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3024,7 +3125,7 @@
         <xdr:cNvPr id="46" name="왼쪽/오른쪽 화살표 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3087,7 +3188,7 @@
         <xdr:cNvPr id="47" name="왼쪽/오른쪽 화살표 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3150,7 +3251,7 @@
         <xdr:cNvPr id="48" name="왼쪽/오른쪽 화살표 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3213,7 +3314,7 @@
         <xdr:cNvPr id="49" name="왼쪽/오른쪽 화살표 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3276,7 +3377,7 @@
         <xdr:cNvPr id="50" name="왼쪽/오른쪽 화살표 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3339,7 +3440,7 @@
         <xdr:cNvPr id="51" name="왼쪽/오른쪽 화살표 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3402,7 +3503,7 @@
         <xdr:cNvPr id="52" name="왼쪽/오른쪽 화살표 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3465,7 +3566,7 @@
         <xdr:cNvPr id="53" name="왼쪽/오른쪽 화살표 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3528,7 +3629,7 @@
         <xdr:cNvPr id="54" name="왼쪽/오른쪽 화살표 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3591,7 +3692,7 @@
         <xdr:cNvPr id="56" name="순서도: 연결자 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3654,7 +3755,7 @@
         <xdr:cNvPr id="57" name="순서도: 연결자 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3717,7 +3818,7 @@
         <xdr:cNvPr id="58" name="순서도: 연결자 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3780,7 +3881,7 @@
         <xdr:cNvPr id="59" name="순서도: 연결자 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3843,7 +3944,7 @@
         <xdr:cNvPr id="60" name="순서도: 연결자 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3906,7 +4007,7 @@
         <xdr:cNvPr id="61" name="순서도: 연결자 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3969,7 +4070,7 @@
         <xdr:cNvPr id="62" name="순서도: 연결자 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4032,7 +4133,7 @@
         <xdr:cNvPr id="63" name="순서도: 연결자 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4095,7 +4196,7 @@
         <xdr:cNvPr id="64" name="순서도: 연결자 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4158,7 +4259,7 @@
         <xdr:cNvPr id="65" name="순서도: 연결자 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4221,7 +4322,7 @@
         <xdr:cNvPr id="67" name="직선 화살표 연결선 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4277,7 +4378,7 @@
         <xdr:cNvPr id="2" name="화살표: 오른쪽 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E4B5519-B345-0239-5A11-B813719E869B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4B5519-B345-0239-5A11-B813719E869B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4334,7 +4435,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="직선 화살표 연결선 3"/>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4381,7 +4488,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="직선 화살표 연결선 65"/>
+        <xdr:cNvPr id="66" name="직선 화살표 연결선 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4428,7 +4541,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="직선 화살표 연결선 67"/>
+        <xdr:cNvPr id="68" name="직선 화살표 연결선 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4475,7 +4594,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="직선 화살표 연결선 68"/>
+        <xdr:cNvPr id="69" name="직선 화살표 연결선 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4522,7 +4647,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="직선 화살표 연결선 69"/>
+        <xdr:cNvPr id="70" name="직선 화살표 연결선 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4569,7 +4700,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="직선 화살표 연결선 70"/>
+        <xdr:cNvPr id="71" name="직선 화살표 연결선 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4616,7 +4753,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="직선 화살표 연결선 71"/>
+        <xdr:cNvPr id="72" name="직선 화살표 연결선 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4663,7 +4806,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="직선 화살표 연결선 72"/>
+        <xdr:cNvPr id="73" name="직선 화살표 연결선 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4710,7 +4859,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="직선 화살표 연결선 73"/>
+        <xdr:cNvPr id="74" name="직선 화살표 연결선 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4757,7 +4912,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="직선 화살표 연결선 74"/>
+        <xdr:cNvPr id="75" name="직선 화살표 연결선 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4804,7 +4965,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="직선 화살표 연결선 75"/>
+        <xdr:cNvPr id="76" name="직선 화살표 연결선 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4851,7 +5018,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="직선 화살표 연결선 76"/>
+        <xdr:cNvPr id="77" name="직선 화살표 연결선 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4883,13 +5056,119 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>6724</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>208431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>6725</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>62755</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A87D154-58EA-46AA-905A-F9EE55008DA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19303253" y="19348078"/>
+          <a:ext cx="1" cy="493059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>6724</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>194824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>6725</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>49148</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 화살표 연결선 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A67F7EA-CEDC-BD1B-477D-701BC7B67F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="25479295" y="18591681"/>
+          <a:ext cx="1" cy="466646"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4927,7 +5206,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4999,7 +5278,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5172,16 +5451,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G6:BS182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="G6:FU182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BV73" sqref="BV73"/>
+    <sheetView tabSelected="1" topLeftCell="AT73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DF80" sqref="DF80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="71" width="3.125" customWidth="1"/>
+    <col min="1" max="179" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="11:61" x14ac:dyDescent="0.3">
@@ -5898,9 +6177,15 @@
       <c r="AN72" s="4"/>
     </row>
     <row r="73" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="L73" t="s">
+        <v>74</v>
+      </c>
       <c r="AH73" s="2"/>
     </row>
     <row r="74" spans="12:40" x14ac:dyDescent="0.3">
+      <c r="L74" t="s">
+        <v>75</v>
+      </c>
       <c r="AH74" s="16"/>
     </row>
     <row r="76" spans="12:40" x14ac:dyDescent="0.3">
@@ -5918,7 +6203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="12:71" x14ac:dyDescent="0.3">
+    <row r="81" spans="12:177" x14ac:dyDescent="0.3">
       <c r="L81" t="s">
         <v>29</v>
       </c>
@@ -5926,17 +6211,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="12:71" x14ac:dyDescent="0.3">
+    <row r="83" spans="12:177" x14ac:dyDescent="0.3">
       <c r="L83" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="12:71" x14ac:dyDescent="0.3">
+    <row r="84" spans="12:177" x14ac:dyDescent="0.3">
       <c r="AT84" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="12:71" x14ac:dyDescent="0.3">
+    <row r="85" spans="12:177" x14ac:dyDescent="0.3">
       <c r="L85" t="s">
         <v>31</v>
       </c>
@@ -5944,24 +6229,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="12:71" x14ac:dyDescent="0.3">
+    <row r="86" spans="12:177" x14ac:dyDescent="0.3">
       <c r="AT86" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="12:71" x14ac:dyDescent="0.3">
+    <row r="87" spans="12:177" x14ac:dyDescent="0.3">
       <c r="P87" s="11"/>
       <c r="T87" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="12:71" x14ac:dyDescent="0.3">
+    <row r="88" spans="12:177" x14ac:dyDescent="0.3">
       <c r="P88" s="11"/>
     </row>
-    <row r="89" spans="12:71" x14ac:dyDescent="0.3">
+    <row r="89" spans="12:177" x14ac:dyDescent="0.3">
       <c r="P89" s="11"/>
-    </row>
-    <row r="90" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="T89" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR89" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN89" t="s">
+        <v>77</v>
+      </c>
+      <c r="CH89" t="s">
+        <v>79</v>
+      </c>
+      <c r="DD89" t="s">
+        <v>80</v>
+      </c>
+      <c r="ED89" t="s">
+        <v>79</v>
+      </c>
+      <c r="FA89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="12:177" x14ac:dyDescent="0.3">
       <c r="P90" s="11"/>
       <c r="Q90" s="12"/>
       <c r="R90" s="6"/>
@@ -5988,7 +6294,7 @@
       <c r="AM90" s="6"/>
       <c r="AN90" s="6"/>
     </row>
-    <row r="91" spans="12:71" x14ac:dyDescent="0.3">
+    <row r="91" spans="12:177" x14ac:dyDescent="0.3">
       <c r="Q91" s="7"/>
       <c r="AN91" s="9"/>
       <c r="AO91" s="7"/>
@@ -6013,13 +6319,229 @@
       <c r="BH91" s="8"/>
       <c r="BI91" s="8"/>
       <c r="BJ91" s="9"/>
-    </row>
-    <row r="92" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="BK91" s="7"/>
+      <c r="BL91" s="8"/>
+      <c r="BM91" s="8"/>
+      <c r="BN91" s="8"/>
+      <c r="BO91" s="8"/>
+      <c r="BP91" s="8"/>
+      <c r="BQ91" s="8"/>
+      <c r="BR91" s="8"/>
+      <c r="BS91" s="8"/>
+      <c r="BT91" s="8"/>
+      <c r="BU91" s="8"/>
+      <c r="BV91" s="8"/>
+      <c r="BW91" s="8"/>
+      <c r="BX91" s="8"/>
+      <c r="BY91" s="8"/>
+      <c r="BZ91" s="8"/>
+      <c r="CA91" s="8"/>
+      <c r="CB91" s="8"/>
+      <c r="CC91" s="8"/>
+      <c r="CD91" s="8"/>
+      <c r="CE91" s="7"/>
+      <c r="CF91" s="8"/>
+      <c r="CG91" s="8"/>
+      <c r="CH91" s="8"/>
+      <c r="CI91" s="8"/>
+      <c r="CJ91" s="8"/>
+      <c r="CK91" s="8"/>
+      <c r="CL91" s="8"/>
+      <c r="CM91" s="8"/>
+      <c r="CN91" s="8"/>
+      <c r="CO91" s="8"/>
+      <c r="CP91" s="8"/>
+      <c r="CQ91" s="8"/>
+      <c r="CR91" s="8"/>
+      <c r="CS91" s="8"/>
+      <c r="CT91" s="8"/>
+      <c r="CU91" s="8"/>
+      <c r="CV91" s="8"/>
+      <c r="CW91" s="8"/>
+      <c r="CX91" s="8"/>
+      <c r="CY91" s="8"/>
+      <c r="CZ91" s="9"/>
+      <c r="DA91" s="7"/>
+      <c r="DB91" s="8"/>
+      <c r="DC91" s="8"/>
+      <c r="DD91" s="8"/>
+      <c r="DE91" s="8"/>
+      <c r="DF91" s="8"/>
+      <c r="DG91" s="8"/>
+      <c r="DH91" s="8"/>
+      <c r="DI91" s="8"/>
+      <c r="DJ91" s="8"/>
+      <c r="DK91" s="8"/>
+      <c r="DL91" s="8"/>
+      <c r="DM91" s="8"/>
+      <c r="DN91" s="8"/>
+      <c r="DO91" s="8"/>
+      <c r="DP91" s="8"/>
+      <c r="DQ91" s="8"/>
+      <c r="DR91" s="8"/>
+      <c r="DS91" s="8"/>
+      <c r="DT91" s="8"/>
+      <c r="DU91" s="8"/>
+      <c r="DV91" s="8"/>
+      <c r="DW91" s="8"/>
+      <c r="DX91" s="8"/>
+      <c r="DY91" s="8"/>
+      <c r="DZ91" s="9"/>
+      <c r="EA91" s="7"/>
+      <c r="EB91" s="8"/>
+      <c r="EC91" s="8"/>
+      <c r="ED91" s="8"/>
+      <c r="EE91" s="8"/>
+      <c r="EF91" s="8"/>
+      <c r="EG91" s="8"/>
+      <c r="EH91" s="8"/>
+      <c r="EI91" s="8"/>
+      <c r="EJ91" s="8"/>
+      <c r="EK91" s="8"/>
+      <c r="EL91" s="8"/>
+      <c r="EM91" s="8"/>
+      <c r="EN91" s="8"/>
+      <c r="EO91" s="8"/>
+      <c r="EP91" s="8"/>
+      <c r="EQ91" s="8"/>
+      <c r="ER91" s="8"/>
+      <c r="ES91" s="8"/>
+      <c r="ET91" s="8"/>
+      <c r="EU91" s="8"/>
+      <c r="EV91" s="8"/>
+      <c r="EW91" s="8"/>
+      <c r="EX91" s="7"/>
+      <c r="EY91" s="8"/>
+      <c r="EZ91" s="8"/>
+      <c r="FA91" s="8"/>
+      <c r="FB91" s="8"/>
+      <c r="FC91" s="8"/>
+      <c r="FD91" s="8"/>
+      <c r="FE91" s="8"/>
+      <c r="FF91" s="8"/>
+      <c r="FG91" s="8"/>
+      <c r="FH91" s="8"/>
+      <c r="FI91" s="8"/>
+      <c r="FJ91" s="8"/>
+      <c r="FK91" s="8"/>
+      <c r="FL91" s="8"/>
+      <c r="FM91" s="8"/>
+      <c r="FN91" s="8"/>
+      <c r="FO91" s="8"/>
+      <c r="FP91" s="8"/>
+      <c r="FQ91" s="8"/>
+      <c r="FR91" s="8"/>
+      <c r="FS91" s="8"/>
+      <c r="FT91" s="8"/>
+      <c r="FU91" s="9"/>
+    </row>
+    <row r="92" spans="12:177" x14ac:dyDescent="0.3">
       <c r="Q92" s="10"/>
       <c r="AN92" s="11"/>
       <c r="BJ92" s="11"/>
-    </row>
-    <row r="93" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="CE92" s="10"/>
+      <c r="CF92" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="CG92" s="21"/>
+      <c r="CH92" s="21"/>
+      <c r="CI92" s="21"/>
+      <c r="CJ92" s="21"/>
+      <c r="CK92" s="21"/>
+      <c r="CL92" s="21"/>
+      <c r="CM92" s="21"/>
+      <c r="CN92" s="21"/>
+      <c r="CO92" s="21"/>
+      <c r="CP92" s="21"/>
+      <c r="CQ92" s="21"/>
+      <c r="CR92" s="21"/>
+      <c r="CS92" s="21"/>
+      <c r="CT92" s="21"/>
+      <c r="CU92" s="21"/>
+      <c r="CV92" s="21"/>
+      <c r="CW92" s="21"/>
+      <c r="CX92" s="21"/>
+      <c r="CY92" s="21"/>
+      <c r="CZ92" s="11"/>
+      <c r="DA92" s="10"/>
+      <c r="DB92" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="DC92" s="21"/>
+      <c r="DD92" s="21"/>
+      <c r="DE92" s="21"/>
+      <c r="DF92" s="21"/>
+      <c r="DG92" s="21"/>
+      <c r="DH92" s="21"/>
+      <c r="DI92" s="21"/>
+      <c r="DJ92" s="21"/>
+      <c r="DK92" s="21"/>
+      <c r="DL92" s="21"/>
+      <c r="DM92" s="21"/>
+      <c r="DN92" s="21"/>
+      <c r="DO92" s="21"/>
+      <c r="DP92" s="21"/>
+      <c r="DQ92" s="21"/>
+      <c r="DR92" s="21"/>
+      <c r="DS92" s="21"/>
+      <c r="DT92" s="21"/>
+      <c r="DU92" s="21"/>
+      <c r="DV92" s="21"/>
+      <c r="DW92" s="21"/>
+      <c r="DX92" s="21"/>
+      <c r="DY92" s="21"/>
+      <c r="DZ92" s="11"/>
+      <c r="EA92" s="10"/>
+      <c r="EB92" s="21"/>
+      <c r="EC92" s="21"/>
+      <c r="ED92" s="21"/>
+      <c r="EE92" s="21"/>
+      <c r="EF92" s="21"/>
+      <c r="EG92" s="21"/>
+      <c r="EH92" s="21"/>
+      <c r="EI92" s="21"/>
+      <c r="EJ92" s="21"/>
+      <c r="EK92" s="21"/>
+      <c r="EL92" s="21"/>
+      <c r="EM92" s="21"/>
+      <c r="EN92" s="21"/>
+      <c r="EO92" s="21"/>
+      <c r="EP92" s="21"/>
+      <c r="EQ92" s="21"/>
+      <c r="ER92" s="21"/>
+      <c r="ES92" s="21"/>
+      <c r="ET92" s="21"/>
+      <c r="EU92" s="21"/>
+      <c r="EV92" s="21"/>
+      <c r="EW92" s="21"/>
+      <c r="EX92" s="10"/>
+      <c r="EY92" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="EZ92" s="21"/>
+      <c r="FA92" s="21"/>
+      <c r="FB92" s="21"/>
+      <c r="FC92" s="21"/>
+      <c r="FD92" s="21"/>
+      <c r="FE92" s="21"/>
+      <c r="FF92" s="21"/>
+      <c r="FG92" s="21"/>
+      <c r="FH92" s="21"/>
+      <c r="FI92" s="21"/>
+      <c r="FJ92" s="21"/>
+      <c r="FK92" s="21"/>
+      <c r="FL92" s="21"/>
+      <c r="FM92" s="21"/>
+      <c r="FN92" s="21"/>
+      <c r="FO92" s="21"/>
+      <c r="FP92" s="21"/>
+      <c r="FQ92" s="21"/>
+      <c r="FR92" s="21"/>
+      <c r="FS92" s="21"/>
+      <c r="FT92" s="21"/>
+      <c r="FU92" s="11"/>
+    </row>
+    <row r="93" spans="12:177" x14ac:dyDescent="0.3">
       <c r="Q93" s="10"/>
       <c r="R93" t="s">
         <v>32</v>
@@ -6041,13 +6563,209 @@
       <c r="BS93" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="94" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="CE93" s="10"/>
+      <c r="CF93" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="CG93" s="21"/>
+      <c r="CH93" s="21"/>
+      <c r="CI93" s="21"/>
+      <c r="CJ93" s="21"/>
+      <c r="CK93" s="21"/>
+      <c r="CL93" s="21"/>
+      <c r="CM93" s="21"/>
+      <c r="CN93" s="21"/>
+      <c r="CO93" s="21"/>
+      <c r="CP93" s="21"/>
+      <c r="CQ93" s="21"/>
+      <c r="CR93" s="21"/>
+      <c r="CS93" s="21"/>
+      <c r="CT93" s="21"/>
+      <c r="CU93" s="21"/>
+      <c r="CV93" s="21"/>
+      <c r="CW93" s="21"/>
+      <c r="CX93" s="21"/>
+      <c r="CY93" s="21"/>
+      <c r="CZ93" s="11"/>
+      <c r="DA93" s="10"/>
+      <c r="DB93" s="21"/>
+      <c r="DC93" s="21"/>
+      <c r="DD93" s="21"/>
+      <c r="DE93" s="21"/>
+      <c r="DF93" s="21"/>
+      <c r="DG93" s="21"/>
+      <c r="DH93" s="21"/>
+      <c r="DI93" s="21"/>
+      <c r="DJ93" s="21"/>
+      <c r="DK93" s="21"/>
+      <c r="DL93" s="21"/>
+      <c r="DM93" s="21"/>
+      <c r="DN93" s="21"/>
+      <c r="DO93" s="21"/>
+      <c r="DP93" s="21"/>
+      <c r="DQ93" s="21"/>
+      <c r="DR93" s="21"/>
+      <c r="DS93" s="21"/>
+      <c r="DT93" s="21"/>
+      <c r="DU93" s="21"/>
+      <c r="DV93" s="21"/>
+      <c r="DW93" s="21"/>
+      <c r="DX93" s="21"/>
+      <c r="DY93" s="21"/>
+      <c r="DZ93" s="11"/>
+      <c r="EA93" s="10"/>
+      <c r="EB93" s="21"/>
+      <c r="EC93" s="21"/>
+      <c r="ED93" s="21"/>
+      <c r="EE93" s="21"/>
+      <c r="EF93" s="21"/>
+      <c r="EG93" s="21"/>
+      <c r="EH93" s="21"/>
+      <c r="EI93" s="21"/>
+      <c r="EJ93" s="21"/>
+      <c r="EK93" s="21"/>
+      <c r="EL93" s="21"/>
+      <c r="EM93" s="21"/>
+      <c r="EN93" s="21"/>
+      <c r="EO93" s="21"/>
+      <c r="EP93" s="21"/>
+      <c r="EQ93" s="21"/>
+      <c r="ER93" s="21"/>
+      <c r="ES93" s="21"/>
+      <c r="ET93" s="21"/>
+      <c r="EU93" s="21"/>
+      <c r="EV93" s="21"/>
+      <c r="EW93" s="21"/>
+      <c r="EX93" s="10"/>
+      <c r="EY93" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="EZ93" s="21"/>
+      <c r="FA93" s="21"/>
+      <c r="FB93" s="21"/>
+      <c r="FC93" s="21"/>
+      <c r="FD93" s="21"/>
+      <c r="FE93" s="21"/>
+      <c r="FF93" s="21"/>
+      <c r="FG93" s="21"/>
+      <c r="FH93" s="21"/>
+      <c r="FI93" s="21"/>
+      <c r="FJ93" s="21"/>
+      <c r="FK93" s="21"/>
+      <c r="FL93" s="21"/>
+      <c r="FM93" s="21"/>
+      <c r="FN93" s="21"/>
+      <c r="FO93" s="21"/>
+      <c r="FP93" s="21"/>
+      <c r="FQ93" s="21"/>
+      <c r="FR93" s="21"/>
+      <c r="FS93" s="21"/>
+      <c r="FT93" s="21"/>
+      <c r="FU93" s="11"/>
+    </row>
+    <row r="94" spans="12:177" x14ac:dyDescent="0.3">
       <c r="Q94" s="10"/>
       <c r="AN94" s="11"/>
       <c r="BJ94" s="11"/>
-    </row>
-    <row r="95" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="CE94" s="10"/>
+      <c r="CF94" s="21"/>
+      <c r="CG94" s="21"/>
+      <c r="CH94" s="21"/>
+      <c r="CI94" s="21"/>
+      <c r="CJ94" s="21"/>
+      <c r="CK94" s="21"/>
+      <c r="CL94" s="21"/>
+      <c r="CM94" s="21"/>
+      <c r="CN94" s="21"/>
+      <c r="CO94" s="21"/>
+      <c r="CP94" s="21"/>
+      <c r="CQ94" s="21"/>
+      <c r="CR94" s="21"/>
+      <c r="CS94" s="21"/>
+      <c r="CT94" s="21"/>
+      <c r="CU94" s="21"/>
+      <c r="CV94" s="21"/>
+      <c r="CW94" s="21"/>
+      <c r="CX94" s="21"/>
+      <c r="CY94" s="21"/>
+      <c r="CZ94" s="11"/>
+      <c r="DA94" s="10"/>
+      <c r="DB94" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="DC94" s="21"/>
+      <c r="DD94" s="21"/>
+      <c r="DE94" s="21"/>
+      <c r="DF94" s="21"/>
+      <c r="DG94" s="21"/>
+      <c r="DH94" s="21"/>
+      <c r="DI94" s="21"/>
+      <c r="DJ94" s="21"/>
+      <c r="DK94" s="21"/>
+      <c r="DL94" s="21"/>
+      <c r="DM94" s="21"/>
+      <c r="DN94" s="21"/>
+      <c r="DO94" s="21"/>
+      <c r="DP94" s="21"/>
+      <c r="DQ94" s="21"/>
+      <c r="DR94" s="21"/>
+      <c r="DS94" s="21"/>
+      <c r="DT94" s="21"/>
+      <c r="DU94" s="21"/>
+      <c r="DV94" s="21"/>
+      <c r="DW94" s="21"/>
+      <c r="DX94" s="21"/>
+      <c r="DY94" s="21"/>
+      <c r="DZ94" s="11"/>
+      <c r="EA94" s="10"/>
+      <c r="EB94" s="21"/>
+      <c r="EC94" s="21"/>
+      <c r="ED94" s="21"/>
+      <c r="EE94" s="21"/>
+      <c r="EF94" s="21"/>
+      <c r="EG94" s="21"/>
+      <c r="EH94" s="21"/>
+      <c r="EI94" s="21"/>
+      <c r="EJ94" s="21"/>
+      <c r="EK94" s="21"/>
+      <c r="EL94" s="21"/>
+      <c r="EM94" s="21"/>
+      <c r="EN94" s="21"/>
+      <c r="EO94" s="21"/>
+      <c r="EP94" s="21"/>
+      <c r="EQ94" s="21"/>
+      <c r="ER94" s="21"/>
+      <c r="ES94" s="21"/>
+      <c r="ET94" s="21"/>
+      <c r="EU94" s="21"/>
+      <c r="EV94" s="21"/>
+      <c r="EW94" s="21"/>
+      <c r="EX94" s="10"/>
+      <c r="EY94" s="21"/>
+      <c r="EZ94" s="21"/>
+      <c r="FA94" s="21"/>
+      <c r="FB94" s="21"/>
+      <c r="FC94" s="21"/>
+      <c r="FD94" s="21"/>
+      <c r="FE94" s="21"/>
+      <c r="FF94" s="21"/>
+      <c r="FG94" s="21"/>
+      <c r="FH94" s="21"/>
+      <c r="FI94" s="21"/>
+      <c r="FJ94" s="21"/>
+      <c r="FK94" s="21"/>
+      <c r="FL94" s="21"/>
+      <c r="FM94" s="21"/>
+      <c r="FN94" s="21"/>
+      <c r="FO94" s="21"/>
+      <c r="FP94" s="21"/>
+      <c r="FQ94" s="21"/>
+      <c r="FR94" s="21"/>
+      <c r="FS94" s="21"/>
+      <c r="FT94" s="21"/>
+      <c r="FU94" s="11"/>
+    </row>
+    <row r="95" spans="12:177" x14ac:dyDescent="0.3">
       <c r="L95" t="s">
         <v>36</v>
       </c>
@@ -6057,16 +6775,216 @@
       <c r="BF95" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="96" spans="12:71" x14ac:dyDescent="0.3">
+      <c r="CE95" s="10"/>
+      <c r="CF95" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="CG95" s="21"/>
+      <c r="CH95" s="21"/>
+      <c r="CI95" s="21"/>
+      <c r="CJ95" s="21"/>
+      <c r="CK95" s="21"/>
+      <c r="CL95" s="21"/>
+      <c r="CM95" s="21"/>
+      <c r="CN95" s="21"/>
+      <c r="CO95" s="21"/>
+      <c r="CP95" s="21"/>
+      <c r="CQ95" s="21"/>
+      <c r="CR95" s="21"/>
+      <c r="CS95" s="21"/>
+      <c r="CT95" s="21"/>
+      <c r="CU95" s="21"/>
+      <c r="CV95" s="21"/>
+      <c r="CW95" s="21"/>
+      <c r="CX95" s="21"/>
+      <c r="CY95" s="21"/>
+      <c r="CZ95" s="11"/>
+      <c r="DA95" s="10"/>
+      <c r="DB95" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="DC95" s="21"/>
+      <c r="DD95" s="21"/>
+      <c r="DE95" s="21"/>
+      <c r="DF95" s="21"/>
+      <c r="DG95" s="21"/>
+      <c r="DH95" s="21"/>
+      <c r="DI95" s="21"/>
+      <c r="DJ95" s="21"/>
+      <c r="DK95" s="21"/>
+      <c r="DL95" s="21"/>
+      <c r="DM95" s="21"/>
+      <c r="DN95" s="21"/>
+      <c r="DO95" s="21"/>
+      <c r="DP95" s="21"/>
+      <c r="DQ95" s="21"/>
+      <c r="DR95" s="21"/>
+      <c r="DS95" s="21"/>
+      <c r="DT95" s="21"/>
+      <c r="DU95" s="21"/>
+      <c r="DV95" s="21"/>
+      <c r="DW95" s="21"/>
+      <c r="DX95" s="21"/>
+      <c r="DY95" s="21"/>
+      <c r="DZ95" s="11"/>
+      <c r="EA95" s="10"/>
+      <c r="EB95" s="21"/>
+      <c r="EC95" s="21"/>
+      <c r="ED95" s="21"/>
+      <c r="EE95" s="21"/>
+      <c r="EF95" s="21"/>
+      <c r="EG95" s="21"/>
+      <c r="EH95" s="21"/>
+      <c r="EI95" s="21"/>
+      <c r="EJ95" s="21"/>
+      <c r="EK95" s="21"/>
+      <c r="EL95" s="21"/>
+      <c r="EM95" s="21"/>
+      <c r="EN95" s="21"/>
+      <c r="EO95" s="21"/>
+      <c r="EP95" s="21"/>
+      <c r="EQ95" s="21"/>
+      <c r="ER95" s="21"/>
+      <c r="ES95" s="21"/>
+      <c r="ET95" s="21"/>
+      <c r="EU95" s="21"/>
+      <c r="EV95" s="21"/>
+      <c r="EW95" s="21"/>
+      <c r="EX95" s="10"/>
+      <c r="EY95" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="EZ95" s="21"/>
+      <c r="FA95" s="21"/>
+      <c r="FB95" s="21"/>
+      <c r="FC95" s="21"/>
+      <c r="FD95" s="21"/>
+      <c r="FE95" s="21"/>
+      <c r="FF95" s="21"/>
+      <c r="FG95" s="21"/>
+      <c r="FH95" s="21"/>
+      <c r="FI95" s="21"/>
+      <c r="FJ95" s="21"/>
+      <c r="FK95" s="21"/>
+      <c r="FL95" s="21"/>
+      <c r="FM95" s="21"/>
+      <c r="FN95" s="21"/>
+      <c r="FO95" s="21"/>
+      <c r="FP95" s="21"/>
+      <c r="FQ95" s="21"/>
+      <c r="FR95" s="21"/>
+      <c r="FS95" s="21"/>
+      <c r="FT95" s="21"/>
+      <c r="FU95" s="11"/>
+    </row>
+    <row r="96" spans="12:177" x14ac:dyDescent="0.3">
       <c r="P96" s="11"/>
       <c r="R96" t="s">
         <v>57</v>
       </c>
       <c r="AN96" s="11"/>
       <c r="BJ96" s="11"/>
-    </row>
-    <row r="97" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="CE96" s="10"/>
+      <c r="CF96" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="CG96" s="21"/>
+      <c r="CH96" s="21"/>
+      <c r="CI96" s="21"/>
+      <c r="CJ96" s="21"/>
+      <c r="CK96" s="21"/>
+      <c r="CL96" s="21"/>
+      <c r="CM96" s="21"/>
+      <c r="CN96" s="21"/>
+      <c r="CO96" s="21"/>
+      <c r="CP96" s="21"/>
+      <c r="CQ96" s="21"/>
+      <c r="CR96" s="21"/>
+      <c r="CS96" s="21"/>
+      <c r="CT96" s="21"/>
+      <c r="CU96" s="21"/>
+      <c r="CV96" s="21"/>
+      <c r="CW96" s="21"/>
+      <c r="CX96" s="21"/>
+      <c r="CY96" s="21"/>
+      <c r="CZ96" s="11"/>
+      <c r="DA96" s="10"/>
+      <c r="DB96" s="21"/>
+      <c r="DC96" s="21"/>
+      <c r="DD96" s="21"/>
+      <c r="DE96" s="21"/>
+      <c r="DF96" s="21"/>
+      <c r="DG96" s="21"/>
+      <c r="DH96" s="21"/>
+      <c r="DI96" s="21"/>
+      <c r="DJ96" s="21"/>
+      <c r="DK96" s="21"/>
+      <c r="DL96" s="21"/>
+      <c r="DM96" s="21"/>
+      <c r="DN96" s="21"/>
+      <c r="DO96" s="21"/>
+      <c r="DP96" s="21"/>
+      <c r="DQ96" s="21"/>
+      <c r="DR96" s="21"/>
+      <c r="DS96" s="21"/>
+      <c r="DT96" s="21"/>
+      <c r="DU96" s="21"/>
+      <c r="DV96" s="21"/>
+      <c r="DW96" s="21"/>
+      <c r="DX96" s="21"/>
+      <c r="DY96" s="21"/>
+      <c r="DZ96" s="11"/>
+      <c r="EA96" s="10"/>
+      <c r="EB96" s="21"/>
+      <c r="EC96" s="21"/>
+      <c r="ED96" s="21"/>
+      <c r="EE96" s="21"/>
+      <c r="EF96" s="21"/>
+      <c r="EG96" s="21"/>
+      <c r="EH96" s="21"/>
+      <c r="EI96" s="21"/>
+      <c r="EJ96" s="21"/>
+      <c r="EK96" s="21"/>
+      <c r="EL96" s="21"/>
+      <c r="EM96" s="21"/>
+      <c r="EN96" s="21"/>
+      <c r="EO96" s="21"/>
+      <c r="EP96" s="21"/>
+      <c r="EQ96" s="21"/>
+      <c r="ER96" s="21"/>
+      <c r="ES96" s="21"/>
+      <c r="ET96" s="21"/>
+      <c r="EU96" s="21"/>
+      <c r="EV96" s="21"/>
+      <c r="EW96" s="21"/>
+      <c r="EX96" s="10"/>
+      <c r="EY96" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="EZ96" s="21"/>
+      <c r="FA96" s="21"/>
+      <c r="FB96" s="21"/>
+      <c r="FC96" s="21"/>
+      <c r="FD96" s="21"/>
+      <c r="FE96" s="21"/>
+      <c r="FF96" s="21"/>
+      <c r="FG96" s="21"/>
+      <c r="FH96" s="21"/>
+      <c r="FI96" s="21"/>
+      <c r="FJ96" s="21"/>
+      <c r="FK96" s="21"/>
+      <c r="FL96" s="21"/>
+      <c r="FM96" s="21"/>
+      <c r="FN96" s="21"/>
+      <c r="FO96" s="21"/>
+      <c r="FP96" s="21"/>
+      <c r="FQ96" s="21"/>
+      <c r="FR96" s="21"/>
+      <c r="FS96" s="21"/>
+      <c r="FT96" s="21"/>
+      <c r="FU96" s="11"/>
+    </row>
+    <row r="97" spans="12:177" x14ac:dyDescent="0.3">
       <c r="P97" s="11"/>
       <c r="R97" t="s">
         <v>40</v>
@@ -6079,8 +6997,107 @@
       <c r="BL97" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="98" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="CE97" s="10"/>
+      <c r="CF97" s="21"/>
+      <c r="CG97" s="21"/>
+      <c r="CH97" s="21"/>
+      <c r="CI97" s="21"/>
+      <c r="CJ97" s="21"/>
+      <c r="CK97" s="21"/>
+      <c r="CL97" s="21"/>
+      <c r="CM97" s="21"/>
+      <c r="CN97" s="21"/>
+      <c r="CO97" s="21"/>
+      <c r="CP97" s="21"/>
+      <c r="CQ97" s="21"/>
+      <c r="CR97" s="21"/>
+      <c r="CS97" s="21"/>
+      <c r="CT97" s="21"/>
+      <c r="CU97" s="21"/>
+      <c r="CV97" s="21"/>
+      <c r="CW97" s="21"/>
+      <c r="CX97" s="21"/>
+      <c r="CY97" s="21"/>
+      <c r="CZ97" s="11"/>
+      <c r="DA97" s="10"/>
+      <c r="DB97" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="DC97" s="21"/>
+      <c r="DD97" s="21"/>
+      <c r="DE97" s="21"/>
+      <c r="DF97" s="21"/>
+      <c r="DG97" s="21"/>
+      <c r="DH97" s="21"/>
+      <c r="DI97" s="21"/>
+      <c r="DJ97" s="21"/>
+      <c r="DK97" s="21"/>
+      <c r="DL97" s="21"/>
+      <c r="DM97" s="21"/>
+      <c r="DN97" s="21"/>
+      <c r="DO97" s="21"/>
+      <c r="DP97" s="21"/>
+      <c r="DQ97" s="21"/>
+      <c r="DR97" s="21"/>
+      <c r="DS97" s="21"/>
+      <c r="DT97" s="21"/>
+      <c r="DU97" s="21"/>
+      <c r="DV97" s="21"/>
+      <c r="DW97" s="21"/>
+      <c r="DX97" s="21"/>
+      <c r="DY97" s="21"/>
+      <c r="DZ97" s="11"/>
+      <c r="EA97" s="10"/>
+      <c r="EB97" s="21"/>
+      <c r="EC97" s="21"/>
+      <c r="ED97" s="21"/>
+      <c r="EE97" s="21"/>
+      <c r="EF97" s="21"/>
+      <c r="EG97" s="21"/>
+      <c r="EH97" s="21"/>
+      <c r="EI97" s="21"/>
+      <c r="EJ97" s="21"/>
+      <c r="EK97" s="21"/>
+      <c r="EL97" s="21"/>
+      <c r="EM97" s="21"/>
+      <c r="EN97" s="21"/>
+      <c r="EO97" s="21"/>
+      <c r="EP97" s="21"/>
+      <c r="EQ97" s="21"/>
+      <c r="ER97" s="21"/>
+      <c r="ES97" s="21"/>
+      <c r="ET97" s="21"/>
+      <c r="EU97" s="21"/>
+      <c r="EV97" s="21"/>
+      <c r="EW97" s="21"/>
+      <c r="EX97" s="10"/>
+      <c r="EY97" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="EZ97" s="21"/>
+      <c r="FA97" s="21"/>
+      <c r="FB97" s="21"/>
+      <c r="FC97" s="21"/>
+      <c r="FD97" s="21"/>
+      <c r="FE97" s="21"/>
+      <c r="FF97" s="21"/>
+      <c r="FG97" s="21"/>
+      <c r="FH97" s="21"/>
+      <c r="FI97" s="21"/>
+      <c r="FJ97" s="21"/>
+      <c r="FK97" s="21"/>
+      <c r="FL97" s="21"/>
+      <c r="FM97" s="21"/>
+      <c r="FN97" s="21"/>
+      <c r="FO97" s="21"/>
+      <c r="FP97" s="21"/>
+      <c r="FQ97" s="21"/>
+      <c r="FR97" s="21"/>
+      <c r="FS97" s="21"/>
+      <c r="FT97" s="21"/>
+      <c r="FU97" s="11"/>
+    </row>
+    <row r="98" spans="12:177" x14ac:dyDescent="0.3">
       <c r="P98" s="11"/>
       <c r="R98" t="s">
         <v>41</v>
@@ -6093,8 +7110,107 @@
       <c r="BL98" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="99" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="CE98" s="10"/>
+      <c r="CF98" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG98" s="21"/>
+      <c r="CH98" s="21"/>
+      <c r="CI98" s="21"/>
+      <c r="CJ98" s="21"/>
+      <c r="CK98" s="21"/>
+      <c r="CL98" s="21"/>
+      <c r="CM98" s="21"/>
+      <c r="CN98" s="21"/>
+      <c r="CO98" s="21"/>
+      <c r="CP98" s="21"/>
+      <c r="CQ98" s="21"/>
+      <c r="CR98" s="21"/>
+      <c r="CS98" s="21"/>
+      <c r="CT98" s="21"/>
+      <c r="CU98" s="21"/>
+      <c r="CV98" s="21"/>
+      <c r="CW98" s="21"/>
+      <c r="CX98" s="21"/>
+      <c r="CY98" s="21"/>
+      <c r="CZ98" s="11"/>
+      <c r="DA98" s="10"/>
+      <c r="DB98" s="21"/>
+      <c r="DC98" s="21"/>
+      <c r="DD98" s="21"/>
+      <c r="DE98" s="21"/>
+      <c r="DF98" s="21"/>
+      <c r="DG98" s="21"/>
+      <c r="DH98" s="21"/>
+      <c r="DI98" s="21"/>
+      <c r="DJ98" s="21"/>
+      <c r="DK98" s="21"/>
+      <c r="DL98" s="21"/>
+      <c r="DM98" s="21"/>
+      <c r="DN98" s="21"/>
+      <c r="DO98" s="21"/>
+      <c r="DP98" s="21"/>
+      <c r="DQ98" s="21"/>
+      <c r="DR98" s="21"/>
+      <c r="DS98" s="21"/>
+      <c r="DT98" s="21"/>
+      <c r="DU98" s="21"/>
+      <c r="DV98" s="21"/>
+      <c r="DW98" s="21"/>
+      <c r="DX98" s="21"/>
+      <c r="DY98" s="21"/>
+      <c r="DZ98" s="11"/>
+      <c r="EA98" s="10"/>
+      <c r="EB98" s="21"/>
+      <c r="EC98" s="21"/>
+      <c r="ED98" s="21"/>
+      <c r="EE98" s="21"/>
+      <c r="EF98" s="21"/>
+      <c r="EG98" s="21"/>
+      <c r="EH98" s="21"/>
+      <c r="EI98" s="21"/>
+      <c r="EJ98" s="21"/>
+      <c r="EK98" s="21"/>
+      <c r="EL98" s="21"/>
+      <c r="EM98" s="21"/>
+      <c r="EN98" s="21"/>
+      <c r="EO98" s="21"/>
+      <c r="EP98" s="21"/>
+      <c r="EQ98" s="21"/>
+      <c r="ER98" s="21"/>
+      <c r="ES98" s="21"/>
+      <c r="ET98" s="21"/>
+      <c r="EU98" s="21"/>
+      <c r="EV98" s="21"/>
+      <c r="EW98" s="21"/>
+      <c r="EX98" s="10"/>
+      <c r="EY98" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="EZ98" s="21"/>
+      <c r="FA98" s="21"/>
+      <c r="FB98" s="21"/>
+      <c r="FC98" s="21"/>
+      <c r="FD98" s="21"/>
+      <c r="FE98" s="21"/>
+      <c r="FF98" s="21"/>
+      <c r="FG98" s="21"/>
+      <c r="FH98" s="21"/>
+      <c r="FI98" s="21"/>
+      <c r="FJ98" s="21"/>
+      <c r="FK98" s="21"/>
+      <c r="FL98" s="21"/>
+      <c r="FM98" s="21"/>
+      <c r="FN98" s="21"/>
+      <c r="FO98" s="21"/>
+      <c r="FP98" s="21"/>
+      <c r="FQ98" s="21"/>
+      <c r="FR98" s="21"/>
+      <c r="FS98" s="21"/>
+      <c r="FT98" s="21"/>
+      <c r="FU98" s="11"/>
+    </row>
+    <row r="99" spans="12:177" x14ac:dyDescent="0.3">
       <c r="P99" s="11"/>
       <c r="AN99" s="11"/>
       <c r="AP99" t="s">
@@ -6112,19 +7228,230 @@
       <c r="BL99" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="100" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="CE99" s="10"/>
+      <c r="CF99" s="21"/>
+      <c r="CG99" s="21"/>
+      <c r="CH99" s="21"/>
+      <c r="CI99" s="21"/>
+      <c r="CJ99" s="21"/>
+      <c r="CK99" s="21"/>
+      <c r="CL99" s="21"/>
+      <c r="CM99" s="21"/>
+      <c r="CN99" s="21"/>
+      <c r="CO99" s="21"/>
+      <c r="CP99" s="21"/>
+      <c r="CQ99" s="21"/>
+      <c r="CR99" s="21"/>
+      <c r="CS99" s="21"/>
+      <c r="CT99" s="21"/>
+      <c r="CU99" s="21"/>
+      <c r="CV99" s="21"/>
+      <c r="CW99" s="21"/>
+      <c r="CX99" s="21"/>
+      <c r="CY99" s="21"/>
+      <c r="CZ99" s="11"/>
+      <c r="DA99" s="10"/>
+      <c r="DB99" s="21"/>
+      <c r="DC99" s="21"/>
+      <c r="DD99" s="21"/>
+      <c r="DE99" s="21"/>
+      <c r="DF99" s="21"/>
+      <c r="DG99" s="21"/>
+      <c r="DH99" s="21"/>
+      <c r="DI99" s="21"/>
+      <c r="DJ99" s="21"/>
+      <c r="DK99" s="21"/>
+      <c r="DL99" s="21"/>
+      <c r="DM99" s="21"/>
+      <c r="DN99" s="21"/>
+      <c r="DO99" s="21"/>
+      <c r="DP99" s="21"/>
+      <c r="DQ99" s="21"/>
+      <c r="DR99" s="21"/>
+      <c r="DS99" s="21"/>
+      <c r="DT99" s="21"/>
+      <c r="DU99" s="21"/>
+      <c r="DV99" s="21"/>
+      <c r="DW99" s="21"/>
+      <c r="DX99" s="21"/>
+      <c r="DY99" s="21"/>
+      <c r="DZ99" s="11"/>
+      <c r="EA99" s="10"/>
+      <c r="EB99" s="21"/>
+      <c r="EC99" s="21"/>
+      <c r="ED99" s="21"/>
+      <c r="EE99" s="21"/>
+      <c r="EF99" s="21"/>
+      <c r="EG99" s="21"/>
+      <c r="EH99" s="21"/>
+      <c r="EI99" s="21"/>
+      <c r="EJ99" s="21"/>
+      <c r="EK99" s="21"/>
+      <c r="EL99" s="21"/>
+      <c r="EM99" s="21"/>
+      <c r="EN99" s="21"/>
+      <c r="EO99" s="21"/>
+      <c r="EP99" s="21"/>
+      <c r="EQ99" s="21"/>
+      <c r="ER99" s="21"/>
+      <c r="ES99" s="21"/>
+      <c r="ET99" s="21"/>
+      <c r="EU99" s="21"/>
+      <c r="EV99" s="21"/>
+      <c r="EW99" s="21"/>
+      <c r="EX99" s="10"/>
+      <c r="EY99" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="EZ99" s="21"/>
+      <c r="FA99" s="21"/>
+      <c r="FB99" s="21"/>
+      <c r="FC99" s="21"/>
+      <c r="FD99" s="21"/>
+      <c r="FE99" s="21"/>
+      <c r="FF99" s="21"/>
+      <c r="FG99" s="21"/>
+      <c r="FH99" s="21"/>
+      <c r="FI99" s="21"/>
+      <c r="FJ99" s="21"/>
+      <c r="FK99" s="21"/>
+      <c r="FL99" s="21"/>
+      <c r="FM99" s="21"/>
+      <c r="FN99" s="21"/>
+      <c r="FO99" s="21"/>
+      <c r="FP99" s="21"/>
+      <c r="FQ99" s="21"/>
+      <c r="FR99" s="21"/>
+      <c r="FS99" s="21"/>
+      <c r="FT99" s="21"/>
+      <c r="FU99" s="11"/>
+    </row>
+    <row r="100" spans="12:177" x14ac:dyDescent="0.3">
       <c r="P100" s="11"/>
       <c r="AN100" s="11"/>
       <c r="AP100" t="s">
         <v>52</v>
       </c>
       <c r="BJ100" s="11"/>
-      <c r="BL100" t="s">
+      <c r="BK100" s="12"/>
+      <c r="BL100" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="101" spans="12:64" x14ac:dyDescent="0.3">
+      <c r="BM100" s="6"/>
+      <c r="BN100" s="6"/>
+      <c r="BO100" s="6"/>
+      <c r="BP100" s="6"/>
+      <c r="BQ100" s="6"/>
+      <c r="BR100" s="6"/>
+      <c r="BS100" s="6"/>
+      <c r="BT100" s="6"/>
+      <c r="BU100" s="6"/>
+      <c r="BV100" s="6"/>
+      <c r="BW100" s="6"/>
+      <c r="BX100" s="6"/>
+      <c r="BY100" s="6"/>
+      <c r="BZ100" s="6"/>
+      <c r="CA100" s="6"/>
+      <c r="CB100" s="6"/>
+      <c r="CC100" s="6"/>
+      <c r="CD100" s="6"/>
+      <c r="CE100" s="12"/>
+      <c r="CF100" s="6"/>
+      <c r="CG100" s="6"/>
+      <c r="CH100" s="6"/>
+      <c r="CI100" s="6"/>
+      <c r="CJ100" s="6"/>
+      <c r="CK100" s="6"/>
+      <c r="CL100" s="6"/>
+      <c r="CM100" s="6"/>
+      <c r="CN100" s="6"/>
+      <c r="CO100" s="6"/>
+      <c r="CP100" s="6"/>
+      <c r="CQ100" s="6"/>
+      <c r="CR100" s="6"/>
+      <c r="CS100" s="6"/>
+      <c r="CT100" s="6"/>
+      <c r="CU100" s="6"/>
+      <c r="CV100" s="6"/>
+      <c r="CW100" s="6"/>
+      <c r="CX100" s="6"/>
+      <c r="CY100" s="6"/>
+      <c r="CZ100" s="13"/>
+      <c r="DA100" s="12"/>
+      <c r="DB100" s="6"/>
+      <c r="DC100" s="6"/>
+      <c r="DD100" s="6"/>
+      <c r="DE100" s="6"/>
+      <c r="DF100" s="6"/>
+      <c r="DG100" s="6"/>
+      <c r="DH100" s="6"/>
+      <c r="DI100" s="6"/>
+      <c r="DJ100" s="6"/>
+      <c r="DK100" s="6"/>
+      <c r="DL100" s="6"/>
+      <c r="DM100" s="6"/>
+      <c r="DN100" s="6"/>
+      <c r="DO100" s="6"/>
+      <c r="DP100" s="6"/>
+      <c r="DQ100" s="6"/>
+      <c r="DR100" s="6"/>
+      <c r="DS100" s="6"/>
+      <c r="DT100" s="6"/>
+      <c r="DU100" s="6"/>
+      <c r="DV100" s="6"/>
+      <c r="DW100" s="6"/>
+      <c r="DX100" s="6"/>
+      <c r="DY100" s="6"/>
+      <c r="DZ100" s="13"/>
+      <c r="EA100" s="12"/>
+      <c r="EB100" s="6"/>
+      <c r="EC100" s="6"/>
+      <c r="ED100" s="6"/>
+      <c r="EE100" s="6"/>
+      <c r="EF100" s="6"/>
+      <c r="EG100" s="6"/>
+      <c r="EH100" s="6"/>
+      <c r="EI100" s="6"/>
+      <c r="EJ100" s="6"/>
+      <c r="EK100" s="6"/>
+      <c r="EL100" s="6"/>
+      <c r="EM100" s="6"/>
+      <c r="EN100" s="6"/>
+      <c r="EO100" s="6"/>
+      <c r="EP100" s="6"/>
+      <c r="EQ100" s="6"/>
+      <c r="ER100" s="6"/>
+      <c r="ES100" s="6"/>
+      <c r="ET100" s="6"/>
+      <c r="EU100" s="6"/>
+      <c r="EV100" s="6"/>
+      <c r="EW100" s="6"/>
+      <c r="EX100" s="12"/>
+      <c r="EY100" s="6"/>
+      <c r="EZ100" s="6"/>
+      <c r="FA100" s="6"/>
+      <c r="FB100" s="6"/>
+      <c r="FC100" s="6"/>
+      <c r="FD100" s="6"/>
+      <c r="FE100" s="6"/>
+      <c r="FF100" s="6"/>
+      <c r="FG100" s="6"/>
+      <c r="FH100" s="6"/>
+      <c r="FI100" s="6"/>
+      <c r="FJ100" s="6"/>
+      <c r="FK100" s="6"/>
+      <c r="FL100" s="6"/>
+      <c r="FM100" s="6"/>
+      <c r="FN100" s="6"/>
+      <c r="FO100" s="6"/>
+      <c r="FP100" s="6"/>
+      <c r="FQ100" s="6"/>
+      <c r="FR100" s="6"/>
+      <c r="FS100" s="6"/>
+      <c r="FT100" s="6"/>
+      <c r="FU100" s="13"/>
+    </row>
+    <row r="101" spans="12:177" x14ac:dyDescent="0.3">
       <c r="Q101" s="7"/>
       <c r="R101" s="8"/>
       <c r="S101" s="8"/>
@@ -6172,51 +7499,47 @@
       <c r="BI101" s="8"/>
       <c r="BJ101" s="8"/>
     </row>
-    <row r="102" spans="12:64" x14ac:dyDescent="0.3">
+    <row r="102" spans="12:177" x14ac:dyDescent="0.3">
       <c r="Q102" s="10"/>
-      <c r="R102" s="19"/>
       <c r="AM102" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="12:64" x14ac:dyDescent="0.3">
+    <row r="103" spans="12:177" x14ac:dyDescent="0.3">
       <c r="Q103" s="10"/>
-      <c r="R103" s="19"/>
-    </row>
-    <row r="104" spans="12:64" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="12:177" x14ac:dyDescent="0.3">
       <c r="Q104" s="10"/>
-      <c r="R104" s="19"/>
-    </row>
-    <row r="105" spans="12:64" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="12:177" x14ac:dyDescent="0.3">
       <c r="L105" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="12:64" x14ac:dyDescent="0.3">
+    <row r="106" spans="12:177" x14ac:dyDescent="0.3">
       <c r="Q106" s="10"/>
     </row>
-    <row r="107" spans="12:64" x14ac:dyDescent="0.3">
+    <row r="107" spans="12:177" x14ac:dyDescent="0.3">
       <c r="Q107" s="10"/>
     </row>
-    <row r="108" spans="12:64" x14ac:dyDescent="0.3">
+    <row r="108" spans="12:177" x14ac:dyDescent="0.3">
       <c r="Q108" s="10"/>
     </row>
-    <row r="109" spans="12:64" x14ac:dyDescent="0.3">
+    <row r="109" spans="12:177" x14ac:dyDescent="0.3">
       <c r="L109" t="s">
         <v>60</v>
       </c>
-      <c r="P109" s="19"/>
-    </row>
-    <row r="110" spans="12:64" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="12:177" x14ac:dyDescent="0.3">
       <c r="P110" s="11"/>
     </row>
-    <row r="111" spans="12:64" x14ac:dyDescent="0.3">
+    <row r="111" spans="12:177" x14ac:dyDescent="0.3">
       <c r="P111" s="11"/>
       <c r="R111" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="12:64" x14ac:dyDescent="0.3">
+    <row r="112" spans="12:177" x14ac:dyDescent="0.3">
       <c r="P112" s="11"/>
       <c r="Q112" s="12"/>
       <c r="R112" s="6"/>
@@ -6420,15 +7743,12 @@
     </row>
     <row r="124" spans="12:71" x14ac:dyDescent="0.3">
       <c r="Q124" s="10"/>
-      <c r="R124" s="19"/>
     </row>
     <row r="125" spans="12:71" x14ac:dyDescent="0.3">
       <c r="Q125" s="10"/>
-      <c r="R125" s="19"/>
     </row>
     <row r="126" spans="12:71" x14ac:dyDescent="0.3">
       <c r="Q126" s="10"/>
-      <c r="R126" s="19"/>
     </row>
     <row r="127" spans="12:71" x14ac:dyDescent="0.3">
       <c r="L127" t="s">
@@ -6467,16 +7787,16 @@
       </c>
     </row>
     <row r="144" spans="12:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U144" s="20"/>
-      <c r="V144" s="20"/>
-      <c r="W144" s="20"/>
-      <c r="X144" s="20"/>
-      <c r="Y144" s="20"/>
-      <c r="Z144" s="20"/>
-      <c r="AA144" s="20"/>
-      <c r="AB144" s="20"/>
-      <c r="AC144" s="20"/>
-      <c r="AD144" s="20"/>
+      <c r="U144" s="19"/>
+      <c r="V144" s="19"/>
+      <c r="W144" s="19"/>
+      <c r="X144" s="19"/>
+      <c r="Y144" s="19"/>
+      <c r="Z144" s="19"/>
+      <c r="AA144" s="19"/>
+      <c r="AB144" s="19"/>
+      <c r="AC144" s="19"/>
+      <c r="AD144" s="19"/>
     </row>
     <row r="145" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L145" s="1"/>
@@ -6488,16 +7808,6 @@
       <c r="R145" s="14"/>
       <c r="S145" s="14"/>
       <c r="T145" s="14"/>
-      <c r="U145" s="19"/>
-      <c r="V145" s="19"/>
-      <c r="W145" s="19"/>
-      <c r="X145" s="19"/>
-      <c r="Y145" s="19"/>
-      <c r="Z145" s="19"/>
-      <c r="AA145" s="19"/>
-      <c r="AB145" s="19"/>
-      <c r="AC145" s="19"/>
-      <c r="AD145" s="19"/>
       <c r="AE145" s="14"/>
       <c r="AF145" s="14"/>
       <c r="AG145" s="14"/>
@@ -6510,792 +7820,106 @@
     </row>
     <row r="146" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L146" s="15"/>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19"/>
-      <c r="O146" s="19"/>
-      <c r="P146" s="19"/>
-      <c r="Q146" s="19"/>
-      <c r="R146" s="19"/>
-      <c r="S146" s="19"/>
-      <c r="T146" s="19"/>
-      <c r="U146" s="19"/>
-      <c r="V146" s="19"/>
-      <c r="W146" s="19"/>
-      <c r="X146" s="19"/>
-      <c r="Y146" s="19"/>
-      <c r="Z146" s="19"/>
-      <c r="AA146" s="19"/>
-      <c r="AB146" s="19"/>
-      <c r="AC146" s="19"/>
-      <c r="AD146" s="19"/>
-      <c r="AE146" s="19"/>
-      <c r="AF146" s="19"/>
-      <c r="AG146" s="19"/>
-      <c r="AH146" s="19"/>
-      <c r="AI146" s="19"/>
-      <c r="AJ146" s="19"/>
-      <c r="AK146" s="19"/>
-      <c r="AL146" s="19"/>
       <c r="AM146" s="16"/>
     </row>
     <row r="147" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L147" s="15"/>
-      <c r="M147" s="19"/>
-      <c r="N147" s="19"/>
-      <c r="O147" s="19"/>
-      <c r="P147" s="19"/>
-      <c r="Q147" s="19"/>
-      <c r="R147" s="19"/>
-      <c r="S147" s="19"/>
-      <c r="T147" s="19"/>
-      <c r="U147" s="19"/>
-      <c r="V147" s="19"/>
-      <c r="W147" s="19"/>
-      <c r="X147" s="19"/>
-      <c r="Y147" s="19"/>
-      <c r="Z147" s="19"/>
-      <c r="AA147" s="19"/>
-      <c r="AB147" s="19"/>
-      <c r="AC147" s="19"/>
-      <c r="AD147" s="19"/>
-      <c r="AE147" s="19"/>
-      <c r="AF147" s="19"/>
-      <c r="AG147" s="19"/>
-      <c r="AH147" s="19"/>
-      <c r="AI147" s="19"/>
-      <c r="AJ147" s="19"/>
-      <c r="AK147" s="19"/>
-      <c r="AL147" s="19"/>
       <c r="AM147" s="16"/>
     </row>
     <row r="148" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L148" s="15"/>
-      <c r="M148" s="19"/>
-      <c r="N148" s="19"/>
-      <c r="O148" s="19"/>
-      <c r="P148" s="19"/>
-      <c r="Q148" s="19"/>
-      <c r="R148" s="19"/>
-      <c r="S148" s="19"/>
-      <c r="T148" s="19"/>
-      <c r="U148" s="19"/>
-      <c r="V148" s="19"/>
-      <c r="W148" s="19"/>
-      <c r="X148" s="19"/>
-      <c r="Y148" s="19"/>
-      <c r="Z148" s="19"/>
-      <c r="AA148" s="19"/>
-      <c r="AB148" s="19"/>
-      <c r="AC148" s="19"/>
-      <c r="AD148" s="19"/>
-      <c r="AE148" s="19"/>
-      <c r="AF148" s="19"/>
-      <c r="AG148" s="19"/>
-      <c r="AH148" s="19"/>
-      <c r="AI148" s="19"/>
-      <c r="AJ148" s="19"/>
-      <c r="AK148" s="19"/>
-      <c r="AL148" s="19"/>
       <c r="AM148" s="16"/>
     </row>
     <row r="149" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L149" s="15"/>
-      <c r="M149" s="19"/>
-      <c r="N149" s="19"/>
-      <c r="O149" s="19"/>
-      <c r="P149" s="19"/>
-      <c r="Q149" s="19"/>
-      <c r="R149" s="19"/>
-      <c r="S149" s="19"/>
-      <c r="T149" s="19"/>
-      <c r="U149" s="19"/>
-      <c r="V149" s="19"/>
-      <c r="W149" s="19"/>
-      <c r="X149" s="19"/>
-      <c r="Y149" s="19"/>
-      <c r="Z149" s="19"/>
-      <c r="AA149" s="19"/>
-      <c r="AB149" s="19"/>
-      <c r="AC149" s="19"/>
-      <c r="AD149" s="19"/>
-      <c r="AE149" s="19"/>
-      <c r="AF149" s="19"/>
-      <c r="AG149" s="19"/>
-      <c r="AH149" s="19"/>
-      <c r="AI149" s="19"/>
-      <c r="AJ149" s="19"/>
-      <c r="AK149" s="19"/>
-      <c r="AL149" s="19"/>
       <c r="AM149" s="16"/>
     </row>
     <row r="150" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L150" s="15"/>
-      <c r="M150" s="19"/>
-      <c r="N150" s="19"/>
-      <c r="O150" s="19"/>
-      <c r="P150" s="19"/>
-      <c r="Q150" s="19"/>
-      <c r="R150" s="19"/>
-      <c r="S150" s="19"/>
-      <c r="T150" s="19"/>
-      <c r="U150" s="19"/>
-      <c r="V150" s="19"/>
-      <c r="W150" s="19"/>
-      <c r="X150" s="19"/>
-      <c r="Y150" s="19"/>
-      <c r="Z150" s="19"/>
-      <c r="AA150" s="19"/>
-      <c r="AB150" s="19"/>
-      <c r="AC150" s="19"/>
-      <c r="AD150" s="19"/>
-      <c r="AE150" s="19"/>
-      <c r="AF150" s="19"/>
-      <c r="AG150" s="19"/>
-      <c r="AH150" s="19"/>
-      <c r="AI150" s="19"/>
-      <c r="AJ150" s="19"/>
-      <c r="AK150" s="19"/>
-      <c r="AL150" s="19"/>
       <c r="AM150" s="16"/>
     </row>
     <row r="151" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L151" s="15"/>
-      <c r="M151" s="19"/>
-      <c r="N151" s="19"/>
-      <c r="O151" s="19"/>
-      <c r="P151" s="19"/>
-      <c r="Q151" s="19"/>
-      <c r="R151" s="19"/>
-      <c r="S151" s="19"/>
-      <c r="T151" s="19"/>
-      <c r="U151" s="19"/>
-      <c r="V151" s="19"/>
-      <c r="W151" s="19"/>
-      <c r="X151" s="19"/>
-      <c r="Y151" s="19"/>
-      <c r="Z151" s="19"/>
-      <c r="AA151" s="19"/>
-      <c r="AB151" s="19"/>
-      <c r="AC151" s="19"/>
-      <c r="AD151" s="19"/>
-      <c r="AE151" s="19"/>
-      <c r="AF151" s="19"/>
-      <c r="AG151" s="19"/>
-      <c r="AH151" s="19"/>
-      <c r="AI151" s="19"/>
-      <c r="AJ151" s="19"/>
-      <c r="AK151" s="19"/>
-      <c r="AL151" s="19"/>
       <c r="AM151" s="16"/>
     </row>
     <row r="152" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L152" s="15"/>
-      <c r="M152" s="19"/>
-      <c r="N152" s="19"/>
-      <c r="O152" s="19"/>
-      <c r="P152" s="19"/>
-      <c r="Q152" s="19"/>
-      <c r="R152" s="19"/>
-      <c r="S152" s="19"/>
-      <c r="T152" s="19"/>
-      <c r="U152" s="19"/>
-      <c r="V152" s="19"/>
-      <c r="W152" s="19"/>
-      <c r="X152" s="19"/>
-      <c r="Y152" s="19"/>
-      <c r="Z152" s="19"/>
-      <c r="AA152" s="19"/>
-      <c r="AB152" s="19"/>
-      <c r="AC152" s="19"/>
-      <c r="AD152" s="19"/>
-      <c r="AE152" s="19"/>
-      <c r="AF152" s="19"/>
-      <c r="AG152" s="19"/>
-      <c r="AH152" s="19"/>
-      <c r="AI152" s="19"/>
-      <c r="AJ152" s="19"/>
-      <c r="AK152" s="19"/>
-      <c r="AL152" s="19"/>
       <c r="AM152" s="16"/>
     </row>
     <row r="153" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L153" s="15"/>
-      <c r="M153" s="19"/>
-      <c r="N153" s="19"/>
-      <c r="O153" s="19"/>
-      <c r="P153" s="19"/>
-      <c r="Q153" s="19"/>
-      <c r="R153" s="19"/>
-      <c r="S153" s="19"/>
-      <c r="T153" s="19"/>
-      <c r="U153" s="19"/>
-      <c r="V153" s="19"/>
-      <c r="W153" s="19"/>
-      <c r="X153" s="19"/>
-      <c r="Y153" s="19"/>
-      <c r="Z153" s="19"/>
-      <c r="AA153" s="19"/>
-      <c r="AB153" s="19"/>
-      <c r="AC153" s="19"/>
-      <c r="AD153" s="19"/>
-      <c r="AE153" s="19"/>
-      <c r="AF153" s="19"/>
-      <c r="AG153" s="19"/>
-      <c r="AH153" s="19"/>
-      <c r="AI153" s="19"/>
-      <c r="AJ153" s="19"/>
-      <c r="AK153" s="19"/>
-      <c r="AL153" s="19"/>
       <c r="AM153" s="16"/>
     </row>
     <row r="154" spans="11:39" x14ac:dyDescent="0.3">
-      <c r="K154" s="21"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="19"/>
-      <c r="N154" s="19"/>
-      <c r="O154" s="19"/>
-      <c r="P154" s="19"/>
-      <c r="Q154" s="19"/>
-      <c r="R154" s="19"/>
-      <c r="S154" s="19"/>
-      <c r="T154" s="19"/>
-      <c r="U154" s="19"/>
-      <c r="V154" s="19"/>
-      <c r="W154" s="19"/>
-      <c r="X154" s="19"/>
-      <c r="Y154" s="19"/>
-      <c r="Z154" s="19"/>
-      <c r="AA154" s="19"/>
-      <c r="AB154" s="19"/>
-      <c r="AC154" s="19"/>
-      <c r="AD154" s="19"/>
-      <c r="AE154" s="19"/>
-      <c r="AF154" s="19"/>
-      <c r="AG154" s="19"/>
-      <c r="AH154" s="19"/>
-      <c r="AI154" s="19"/>
-      <c r="AJ154" s="19"/>
-      <c r="AK154" s="19"/>
-      <c r="AL154" s="19"/>
-      <c r="AM154" s="21"/>
+      <c r="K154" s="20"/>
+      <c r="AM154" s="20"/>
     </row>
     <row r="155" spans="11:39" x14ac:dyDescent="0.3">
-      <c r="K155" s="21"/>
-      <c r="L155" s="19"/>
-      <c r="M155" s="19"/>
-      <c r="N155" s="19"/>
-      <c r="O155" s="19"/>
-      <c r="P155" s="19"/>
-      <c r="Q155" s="19"/>
-      <c r="R155" s="19"/>
-      <c r="S155" s="19"/>
-      <c r="T155" s="19"/>
-      <c r="U155" s="19"/>
-      <c r="V155" s="19"/>
-      <c r="W155" s="19"/>
-      <c r="X155" s="19"/>
-      <c r="Y155" s="19"/>
-      <c r="Z155" s="19"/>
-      <c r="AA155" s="19"/>
-      <c r="AB155" s="19"/>
-      <c r="AC155" s="19"/>
-      <c r="AD155" s="19"/>
-      <c r="AE155" s="19"/>
-      <c r="AF155" s="19"/>
-      <c r="AG155" s="19"/>
-      <c r="AH155" s="19"/>
-      <c r="AI155" s="19"/>
-      <c r="AJ155" s="19"/>
-      <c r="AK155" s="19"/>
-      <c r="AL155" s="19"/>
-      <c r="AM155" s="21"/>
+      <c r="K155" s="20"/>
+      <c r="AM155" s="20"/>
     </row>
     <row r="156" spans="11:39" x14ac:dyDescent="0.3">
-      <c r="K156" s="21"/>
-      <c r="L156" s="19"/>
-      <c r="M156" s="19"/>
-      <c r="N156" s="19"/>
-      <c r="O156" s="19"/>
-      <c r="P156" s="19"/>
-      <c r="Q156" s="19"/>
-      <c r="R156" s="19"/>
-      <c r="S156" s="19"/>
-      <c r="T156" s="19"/>
-      <c r="U156" s="19"/>
-      <c r="V156" s="19"/>
-      <c r="W156" s="19"/>
-      <c r="X156" s="19"/>
-      <c r="Y156" s="19"/>
-      <c r="Z156" s="19"/>
-      <c r="AA156" s="19"/>
-      <c r="AB156" s="19"/>
-      <c r="AC156" s="19"/>
-      <c r="AD156" s="19"/>
-      <c r="AE156" s="19"/>
-      <c r="AF156" s="19"/>
-      <c r="AG156" s="19"/>
-      <c r="AH156" s="19"/>
-      <c r="AI156" s="19"/>
-      <c r="AJ156" s="19"/>
-      <c r="AK156" s="19"/>
-      <c r="AL156" s="19"/>
-      <c r="AM156" s="21"/>
+      <c r="K156" s="20"/>
+      <c r="AM156" s="20"/>
     </row>
     <row r="157" spans="11:39" x14ac:dyDescent="0.3">
-      <c r="K157" s="21"/>
-      <c r="L157" s="19"/>
-      <c r="M157" s="19"/>
-      <c r="N157" s="19"/>
-      <c r="O157" s="19"/>
-      <c r="P157" s="19"/>
-      <c r="Q157" s="19"/>
-      <c r="R157" s="19"/>
-      <c r="S157" s="19"/>
-      <c r="T157" s="19"/>
-      <c r="U157" s="19"/>
-      <c r="V157" s="19"/>
-      <c r="W157" s="19"/>
-      <c r="X157" s="19"/>
-      <c r="Y157" s="19"/>
-      <c r="Z157" s="19"/>
-      <c r="AA157" s="19"/>
-      <c r="AB157" s="19"/>
-      <c r="AC157" s="19"/>
-      <c r="AD157" s="19"/>
-      <c r="AE157" s="19"/>
-      <c r="AF157" s="19"/>
-      <c r="AG157" s="19"/>
-      <c r="AH157" s="19"/>
-      <c r="AI157" s="19"/>
-      <c r="AJ157" s="19"/>
-      <c r="AK157" s="19"/>
-      <c r="AL157" s="19"/>
-      <c r="AM157" s="21"/>
+      <c r="K157" s="20"/>
+      <c r="AM157" s="20"/>
     </row>
     <row r="158" spans="11:39" x14ac:dyDescent="0.3">
-      <c r="K158" s="21"/>
-      <c r="L158" s="19"/>
-      <c r="M158" s="19"/>
-      <c r="N158" s="19"/>
-      <c r="O158" s="19"/>
-      <c r="P158" s="19"/>
-      <c r="Q158" s="19"/>
-      <c r="R158" s="19"/>
-      <c r="S158" s="19"/>
-      <c r="T158" s="19"/>
-      <c r="U158" s="19"/>
-      <c r="V158" s="19"/>
-      <c r="W158" s="19"/>
-      <c r="X158" s="19"/>
-      <c r="Y158" s="19"/>
-      <c r="Z158" s="19"/>
-      <c r="AA158" s="19"/>
-      <c r="AB158" s="19"/>
-      <c r="AC158" s="19"/>
-      <c r="AD158" s="19"/>
-      <c r="AE158" s="19"/>
-      <c r="AF158" s="19"/>
-      <c r="AG158" s="19"/>
-      <c r="AH158" s="19"/>
-      <c r="AI158" s="19"/>
-      <c r="AJ158" s="19"/>
-      <c r="AK158" s="19"/>
-      <c r="AL158" s="19"/>
-      <c r="AM158" s="21"/>
+      <c r="K158" s="20"/>
+      <c r="AM158" s="20"/>
     </row>
     <row r="159" spans="11:39" x14ac:dyDescent="0.3">
-      <c r="K159" s="21"/>
-      <c r="L159" s="19"/>
-      <c r="M159" s="19"/>
-      <c r="N159" s="19"/>
-      <c r="O159" s="19"/>
-      <c r="P159" s="19"/>
-      <c r="Q159" s="19"/>
-      <c r="R159" s="19"/>
-      <c r="S159" s="19"/>
-      <c r="T159" s="19"/>
-      <c r="U159" s="19"/>
-      <c r="V159" s="19"/>
-      <c r="W159" s="19"/>
-      <c r="X159" s="19"/>
-      <c r="Y159" s="19"/>
-      <c r="Z159" s="19"/>
-      <c r="AA159" s="19"/>
-      <c r="AB159" s="19"/>
-      <c r="AC159" s="19"/>
-      <c r="AD159" s="19"/>
-      <c r="AE159" s="19"/>
-      <c r="AF159" s="19"/>
-      <c r="AG159" s="19"/>
-      <c r="AH159" s="19"/>
-      <c r="AI159" s="19"/>
-      <c r="AJ159" s="19"/>
-      <c r="AK159" s="19"/>
-      <c r="AL159" s="19"/>
-      <c r="AM159" s="21"/>
+      <c r="K159" s="20"/>
+      <c r="AM159" s="20"/>
     </row>
     <row r="160" spans="11:39" x14ac:dyDescent="0.3">
-      <c r="K160" s="21"/>
-      <c r="L160" s="19"/>
-      <c r="M160" s="19"/>
-      <c r="N160" s="19"/>
-      <c r="O160" s="19"/>
-      <c r="P160" s="19"/>
-      <c r="Q160" s="19"/>
-      <c r="R160" s="19"/>
-      <c r="S160" s="19"/>
-      <c r="T160" s="19"/>
-      <c r="U160" s="19"/>
-      <c r="V160" s="19"/>
-      <c r="W160" s="19"/>
-      <c r="X160" s="19"/>
-      <c r="Y160" s="19"/>
-      <c r="Z160" s="19"/>
-      <c r="AA160" s="19"/>
-      <c r="AB160" s="19"/>
-      <c r="AC160" s="19"/>
-      <c r="AD160" s="19"/>
-      <c r="AE160" s="19"/>
-      <c r="AF160" s="19"/>
-      <c r="AG160" s="19"/>
-      <c r="AH160" s="19"/>
-      <c r="AI160" s="19"/>
-      <c r="AJ160" s="19"/>
-      <c r="AK160" s="19"/>
-      <c r="AL160" s="19"/>
-      <c r="AM160" s="21"/>
+      <c r="K160" s="20"/>
+      <c r="AM160" s="20"/>
     </row>
     <row r="161" spans="11:39" x14ac:dyDescent="0.3">
-      <c r="K161" s="21"/>
-      <c r="L161" s="19"/>
-      <c r="M161" s="19"/>
-      <c r="N161" s="19"/>
-      <c r="O161" s="19"/>
-      <c r="P161" s="19"/>
-      <c r="Q161" s="19"/>
-      <c r="R161" s="19"/>
-      <c r="S161" s="19"/>
-      <c r="T161" s="19"/>
-      <c r="U161" s="19"/>
-      <c r="V161" s="19"/>
-      <c r="W161" s="19"/>
-      <c r="X161" s="19"/>
-      <c r="Y161" s="19"/>
-      <c r="Z161" s="19"/>
-      <c r="AA161" s="19"/>
-      <c r="AB161" s="19"/>
-      <c r="AC161" s="19"/>
-      <c r="AD161" s="19"/>
-      <c r="AE161" s="19"/>
-      <c r="AF161" s="19"/>
-      <c r="AG161" s="19"/>
-      <c r="AH161" s="19"/>
-      <c r="AI161" s="19"/>
-      <c r="AJ161" s="19"/>
-      <c r="AK161" s="19"/>
-      <c r="AL161" s="19"/>
-      <c r="AM161" s="21"/>
+      <c r="K161" s="20"/>
+      <c r="AM161" s="20"/>
     </row>
     <row r="162" spans="11:39" x14ac:dyDescent="0.3">
-      <c r="K162" s="21"/>
-      <c r="L162" s="19"/>
-      <c r="M162" s="19"/>
-      <c r="N162" s="19"/>
-      <c r="O162" s="19"/>
-      <c r="P162" s="19"/>
-      <c r="Q162" s="19"/>
-      <c r="R162" s="19"/>
-      <c r="S162" s="19"/>
-      <c r="T162" s="19"/>
-      <c r="U162" s="19"/>
-      <c r="V162" s="19"/>
-      <c r="W162" s="19"/>
-      <c r="X162" s="19"/>
-      <c r="Y162" s="19"/>
-      <c r="Z162" s="19"/>
-      <c r="AA162" s="19"/>
-      <c r="AB162" s="19"/>
-      <c r="AC162" s="19"/>
-      <c r="AD162" s="19"/>
-      <c r="AE162" s="19"/>
-      <c r="AF162" s="19"/>
-      <c r="AG162" s="19"/>
-      <c r="AH162" s="19"/>
-      <c r="AI162" s="19"/>
-      <c r="AJ162" s="19"/>
-      <c r="AK162" s="19"/>
-      <c r="AL162" s="19"/>
-      <c r="AM162" s="21"/>
+      <c r="K162" s="20"/>
+      <c r="AM162" s="20"/>
     </row>
     <row r="163" spans="11:39" x14ac:dyDescent="0.3">
-      <c r="K163" s="21"/>
-      <c r="L163" s="19"/>
-      <c r="M163" s="19"/>
-      <c r="N163" s="19"/>
-      <c r="O163" s="19"/>
-      <c r="P163" s="19"/>
-      <c r="Q163" s="19"/>
-      <c r="R163" s="19"/>
-      <c r="S163" s="19"/>
-      <c r="T163" s="19"/>
-      <c r="U163" s="19"/>
-      <c r="V163" s="19"/>
-      <c r="W163" s="19"/>
-      <c r="X163" s="19"/>
-      <c r="Y163" s="19"/>
-      <c r="Z163" s="19"/>
-      <c r="AA163" s="19"/>
-      <c r="AB163" s="19"/>
-      <c r="AC163" s="19"/>
-      <c r="AD163" s="19"/>
-      <c r="AE163" s="19"/>
-      <c r="AF163" s="19"/>
-      <c r="AG163" s="19"/>
-      <c r="AH163" s="19"/>
-      <c r="AI163" s="19"/>
-      <c r="AJ163" s="19"/>
-      <c r="AK163" s="19"/>
-      <c r="AL163" s="19"/>
-      <c r="AM163" s="21"/>
+      <c r="K163" s="20"/>
+      <c r="AM163" s="20"/>
     </row>
     <row r="164" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L164" s="15"/>
-      <c r="M164" s="19"/>
-      <c r="N164" s="19"/>
-      <c r="O164" s="19"/>
-      <c r="P164" s="19"/>
-      <c r="Q164" s="19"/>
-      <c r="R164" s="19"/>
-      <c r="S164" s="19"/>
-      <c r="T164" s="19"/>
-      <c r="U164" s="19"/>
-      <c r="V164" s="19"/>
-      <c r="W164" s="19"/>
-      <c r="X164" s="19"/>
-      <c r="Y164" s="19"/>
-      <c r="Z164" s="19"/>
-      <c r="AA164" s="19"/>
-      <c r="AB164" s="19"/>
-      <c r="AC164" s="19"/>
-      <c r="AD164" s="19"/>
-      <c r="AE164" s="19"/>
-      <c r="AF164" s="19"/>
-      <c r="AG164" s="19"/>
-      <c r="AH164" s="19"/>
-      <c r="AI164" s="19"/>
-      <c r="AJ164" s="19"/>
-      <c r="AK164" s="19"/>
-      <c r="AL164" s="19"/>
       <c r="AM164" s="16"/>
     </row>
     <row r="165" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L165" s="15"/>
-      <c r="M165" s="19"/>
-      <c r="N165" s="19"/>
-      <c r="O165" s="19"/>
-      <c r="P165" s="19"/>
-      <c r="Q165" s="19"/>
-      <c r="R165" s="19"/>
-      <c r="S165" s="19"/>
-      <c r="T165" s="19"/>
-      <c r="U165" s="19"/>
-      <c r="V165" s="19"/>
-      <c r="W165" s="19"/>
-      <c r="X165" s="19"/>
-      <c r="Y165" s="19"/>
-      <c r="Z165" s="19"/>
-      <c r="AA165" s="19"/>
-      <c r="AB165" s="19"/>
-      <c r="AC165" s="19"/>
-      <c r="AD165" s="19"/>
-      <c r="AE165" s="19"/>
-      <c r="AF165" s="19"/>
-      <c r="AG165" s="19"/>
-      <c r="AH165" s="19"/>
-      <c r="AI165" s="19"/>
-      <c r="AJ165" s="19"/>
-      <c r="AK165" s="19"/>
-      <c r="AL165" s="19"/>
       <c r="AM165" s="16"/>
     </row>
     <row r="166" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L166" s="15"/>
-      <c r="M166" s="19"/>
-      <c r="N166" s="19"/>
-      <c r="O166" s="19"/>
-      <c r="P166" s="19"/>
-      <c r="Q166" s="19"/>
-      <c r="R166" s="19"/>
-      <c r="S166" s="19"/>
-      <c r="T166" s="19"/>
-      <c r="U166" s="19"/>
-      <c r="V166" s="19"/>
-      <c r="W166" s="19"/>
-      <c r="X166" s="19"/>
-      <c r="Y166" s="19"/>
-      <c r="Z166" s="19"/>
-      <c r="AA166" s="19"/>
-      <c r="AB166" s="19"/>
-      <c r="AC166" s="19"/>
-      <c r="AD166" s="19"/>
-      <c r="AE166" s="19"/>
-      <c r="AF166" s="19"/>
-      <c r="AG166" s="19"/>
-      <c r="AH166" s="19"/>
-      <c r="AI166" s="19"/>
-      <c r="AJ166" s="19"/>
-      <c r="AK166" s="19"/>
-      <c r="AL166" s="19"/>
       <c r="AM166" s="16"/>
     </row>
     <row r="167" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L167" s="15"/>
-      <c r="M167" s="19"/>
-      <c r="N167" s="19"/>
-      <c r="O167" s="19"/>
-      <c r="P167" s="19"/>
-      <c r="Q167" s="19"/>
-      <c r="R167" s="19"/>
-      <c r="S167" s="19"/>
-      <c r="T167" s="19"/>
-      <c r="U167" s="19"/>
-      <c r="V167" s="19"/>
-      <c r="W167" s="19"/>
-      <c r="X167" s="19"/>
-      <c r="Y167" s="19"/>
-      <c r="Z167" s="19"/>
-      <c r="AA167" s="19"/>
-      <c r="AB167" s="19"/>
-      <c r="AC167" s="19"/>
-      <c r="AD167" s="19"/>
-      <c r="AE167" s="19"/>
-      <c r="AF167" s="19"/>
-      <c r="AG167" s="19"/>
-      <c r="AH167" s="19"/>
-      <c r="AI167" s="19"/>
-      <c r="AJ167" s="19"/>
-      <c r="AK167" s="19"/>
-      <c r="AL167" s="19"/>
       <c r="AM167" s="16"/>
     </row>
     <row r="168" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L168" s="15"/>
-      <c r="M168" s="19"/>
-      <c r="N168" s="19"/>
-      <c r="O168" s="19"/>
-      <c r="P168" s="19"/>
-      <c r="Q168" s="19"/>
-      <c r="R168" s="19"/>
-      <c r="S168" s="19"/>
-      <c r="T168" s="19"/>
-      <c r="U168" s="19"/>
-      <c r="V168" s="19"/>
-      <c r="W168" s="19"/>
-      <c r="X168" s="19"/>
-      <c r="Y168" s="19"/>
-      <c r="Z168" s="19"/>
-      <c r="AA168" s="19"/>
-      <c r="AB168" s="19"/>
-      <c r="AC168" s="19"/>
-      <c r="AD168" s="19"/>
-      <c r="AE168" s="19"/>
-      <c r="AF168" s="19"/>
-      <c r="AG168" s="19"/>
-      <c r="AH168" s="19"/>
-      <c r="AI168" s="19"/>
-      <c r="AJ168" s="19"/>
-      <c r="AK168" s="19"/>
-      <c r="AL168" s="19"/>
       <c r="AM168" s="16"/>
     </row>
     <row r="169" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L169" s="15"/>
-      <c r="M169" s="19"/>
-      <c r="N169" s="19"/>
-      <c r="O169" s="19"/>
-      <c r="P169" s="19"/>
-      <c r="Q169" s="19"/>
-      <c r="R169" s="19"/>
-      <c r="S169" s="19"/>
-      <c r="T169" s="19"/>
-      <c r="U169" s="19"/>
-      <c r="V169" s="19"/>
-      <c r="W169" s="19"/>
-      <c r="X169" s="19"/>
-      <c r="Y169" s="19"/>
-      <c r="Z169" s="19"/>
-      <c r="AA169" s="19"/>
-      <c r="AB169" s="19"/>
-      <c r="AC169" s="19"/>
-      <c r="AD169" s="19"/>
-      <c r="AE169" s="19"/>
-      <c r="AF169" s="19"/>
-      <c r="AG169" s="19"/>
-      <c r="AH169" s="19"/>
-      <c r="AI169" s="19"/>
-      <c r="AJ169" s="19"/>
-      <c r="AK169" s="19"/>
-      <c r="AL169" s="19"/>
       <c r="AM169" s="16"/>
     </row>
     <row r="170" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L170" s="15"/>
-      <c r="M170" s="19"/>
-      <c r="N170" s="19"/>
-      <c r="O170" s="19"/>
-      <c r="P170" s="19"/>
-      <c r="Q170" s="19"/>
-      <c r="R170" s="19"/>
-      <c r="S170" s="19"/>
-      <c r="T170" s="19"/>
-      <c r="U170" s="19"/>
-      <c r="V170" s="19"/>
-      <c r="W170" s="19"/>
-      <c r="X170" s="19"/>
-      <c r="Y170" s="19"/>
-      <c r="Z170" s="19"/>
-      <c r="AA170" s="19"/>
-      <c r="AB170" s="19"/>
-      <c r="AC170" s="19"/>
-      <c r="AD170" s="19"/>
-      <c r="AE170" s="19"/>
-      <c r="AF170" s="19"/>
-      <c r="AG170" s="19"/>
-      <c r="AH170" s="19"/>
-      <c r="AI170" s="19"/>
-      <c r="AJ170" s="19"/>
-      <c r="AK170" s="19"/>
-      <c r="AL170" s="19"/>
       <c r="AM170" s="16"/>
     </row>
     <row r="171" spans="11:39" x14ac:dyDescent="0.3">
       <c r="L171" s="15"/>
-      <c r="M171" s="19"/>
-      <c r="N171" s="19"/>
-      <c r="O171" s="19"/>
-      <c r="P171" s="19"/>
-      <c r="Q171" s="19"/>
-      <c r="R171" s="19"/>
-      <c r="S171" s="19"/>
-      <c r="T171" s="19"/>
-      <c r="U171" s="19"/>
-      <c r="V171" s="19"/>
-      <c r="W171" s="19"/>
-      <c r="X171" s="19"/>
-      <c r="Y171" s="19"/>
-      <c r="Z171" s="19"/>
-      <c r="AA171" s="19"/>
-      <c r="AB171" s="19"/>
-      <c r="AC171" s="19"/>
-      <c r="AD171" s="19"/>
-      <c r="AE171" s="19"/>
-      <c r="AF171" s="19"/>
-      <c r="AG171" s="19"/>
-      <c r="AH171" s="19"/>
-      <c r="AI171" s="19"/>
-      <c r="AJ171" s="19"/>
-      <c r="AK171" s="19"/>
-      <c r="AL171" s="19"/>
       <c r="AM171" s="16"/>
     </row>
     <row r="172" spans="11:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7308,16 +7932,16 @@
       <c r="R172" s="5"/>
       <c r="S172" s="5"/>
       <c r="T172" s="5"/>
-      <c r="U172" s="20"/>
-      <c r="V172" s="20"/>
-      <c r="W172" s="20"/>
-      <c r="X172" s="20"/>
-      <c r="Y172" s="20"/>
-      <c r="Z172" s="20"/>
-      <c r="AA172" s="20"/>
-      <c r="AB172" s="20"/>
-      <c r="AC172" s="20"/>
-      <c r="AD172" s="20"/>
+      <c r="U172" s="19"/>
+      <c r="V172" s="19"/>
+      <c r="W172" s="19"/>
+      <c r="X172" s="19"/>
+      <c r="Y172" s="19"/>
+      <c r="Z172" s="19"/>
+      <c r="AA172" s="19"/>
+      <c r="AB172" s="19"/>
+      <c r="AC172" s="19"/>
+      <c r="AD172" s="19"/>
       <c r="AE172" s="5"/>
       <c r="AF172" s="5"/>
       <c r="AG172" s="5"/>
@@ -7357,7 +7981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7370,7 +7994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/맵 형태 개발 정리.xlsx
+++ b/맵 형태 개발 정리.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Moles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD10EBA-DBE6-455E-B614-A0750EC03774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="35100" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="29040" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
   <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,17 +391,125 @@
   </si>
   <si>
     <t>속도는 점점 빨라지다가 과부하로 터렛 파괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 성장 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투를 통한 아이템 습득 -&gt; 아이템 종류는 두 가지 ( 생물형, 로봇형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐기 이유 : 기존에 맵을 랜덤하게 생성하는 방법을 만들어서 탐험의 재미를 추가하였는데, 이 경우 맵이 1자형이 되어 탐험의 재미와 랜덤 맵의 재미가 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. (폐기안) 맵을 지날 때마다  플레이어의 기술을 업그레이드 하는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점을 찾아가서 기존까지 모은 아이템으로 무기 or 기체를 업그레이드 할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장점 : 맵의 곳곳을 탐색할 이유가 생김.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단점 : 들고 있는 아이템을 사용하기 위해 힘들게 유저가 다시 상점으로 길을 헤매면서 돌아가야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결방안 : 굳이 한 번 더 찾아가지 않아도 보스 클리어 시 무조건 상점을 한 번 볼 수 있게함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 보스 전에 완전한 준비를 갖추고 싶을 때만 갈 수 있게 만들 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가적인 요소로 두 가지 정도를 더 생각할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 방을 돌아다는 길에 이미 클리어한 방이라도 플레이어를 방해하는 요소가 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 플레이가 돌아다닌 길에 대한 미니맵, 아니면 그냥 열어서 확인할 수 있는 맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 맵 안에 랜덤한 위치에 상점을 놓기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 보스 클리어시만 상점을 놓기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 직접 디자인을 제작해야하는 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 큰 정사각형 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 전투형 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 전투형 방 ( 생물형, 로봇형 하나 씩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리트 몬스터 대기 방 (윗부분을 대부분 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 작은 정사각형 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사일 피하기 방(함정 방)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 긴 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 3단계 맵은 다른 모습을 보일 수 있으면 좋으므로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 기습 방 (윗부분을 대부분 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리트 VS 엘리트 방 (윗부분을 대부분 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 방 (윗부분을 대부분 활용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +522,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -624,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +812,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -731,7 +855,7 @@
         <xdr:cNvPr id="7" name="왼쪽/오른쪽 화살표 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -794,7 +918,7 @@
         <xdr:cNvPr id="8" name="왼쪽/오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +981,7 @@
         <xdr:cNvPr id="9" name="왼쪽/오른쪽 화살표 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,7 +1044,7 @@
         <xdr:cNvPr id="10" name="왼쪽/오른쪽 화살표 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,7 +1107,7 @@
         <xdr:cNvPr id="11" name="왼쪽/오른쪽 화살표 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1046,7 +1170,7 @@
         <xdr:cNvPr id="12" name="왼쪽/오른쪽 화살표 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,7 +1233,7 @@
         <xdr:cNvPr id="13" name="왼쪽/오른쪽 화살표 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1172,7 +1296,7 @@
         <xdr:cNvPr id="14" name="왼쪽/오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1359,7 @@
         <xdr:cNvPr id="15" name="왼쪽/오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1422,7 @@
         <xdr:cNvPr id="16" name="왼쪽/오른쪽 화살표 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1485,7 @@
         <xdr:cNvPr id="17" name="왼쪽/오른쪽 화살표 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,7 +1548,7 @@
         <xdr:cNvPr id="18" name="왼쪽/오른쪽 화살표 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1611,7 @@
         <xdr:cNvPr id="19" name="왼쪽/오른쪽 화살표 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1674,7 @@
         <xdr:cNvPr id="20" name="왼쪽/오른쪽 화살표 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1737,7 @@
         <xdr:cNvPr id="21" name="왼쪽/오른쪽 화살표 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1800,7 @@
         <xdr:cNvPr id="22" name="왼쪽/오른쪽 화살표 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1863,7 @@
         <xdr:cNvPr id="23" name="왼쪽/오른쪽 화살표 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,7 +1926,7 @@
         <xdr:cNvPr id="24" name="왼쪽/오른쪽 화살표 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1989,7 @@
         <xdr:cNvPr id="26" name="왼쪽/오른쪽 화살표 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +2052,7 @@
         <xdr:cNvPr id="27" name="왼쪽/오른쪽 화살표 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1991,7 +2115,7 @@
         <xdr:cNvPr id="28" name="왼쪽/오른쪽 화살표 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2178,7 @@
         <xdr:cNvPr id="29" name="왼쪽/오른쪽 화살표 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2241,7 @@
         <xdr:cNvPr id="30" name="왼쪽/오른쪽 화살표 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2304,7 @@
         <xdr:cNvPr id="31" name="왼쪽/오른쪽 화살표 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2367,7 @@
         <xdr:cNvPr id="32" name="왼쪽/오른쪽 화살표 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2430,7 @@
         <xdr:cNvPr id="33" name="왼쪽/오른쪽 화살표 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2493,7 @@
         <xdr:cNvPr id="34" name="왼쪽/오른쪽 화살표 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2556,7 @@
         <xdr:cNvPr id="35" name="왼쪽/오른쪽 화살표 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2619,7 @@
         <xdr:cNvPr id="36" name="왼쪽/오른쪽 화살표 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2682,7 @@
         <xdr:cNvPr id="37" name="왼쪽/오른쪽 화살표 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2745,7 @@
         <xdr:cNvPr id="38" name="왼쪽/오른쪽 화살표 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,7 +2808,7 @@
         <xdr:cNvPr id="39" name="왼쪽/오른쪽 화살표 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2871,7 @@
         <xdr:cNvPr id="40" name="왼쪽/오른쪽 화살표 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2934,7 @@
         <xdr:cNvPr id="41" name="왼쪽/오른쪽 화살표 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2873,7 +2997,7 @@
         <xdr:cNvPr id="42" name="왼쪽/오른쪽 화살표 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,7 +3060,7 @@
         <xdr:cNvPr id="43" name="왼쪽/오른쪽 화살표 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2999,7 +3123,7 @@
         <xdr:cNvPr id="44" name="왼쪽/오른쪽 화살표 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3062,7 +3186,7 @@
         <xdr:cNvPr id="45" name="왼쪽/오른쪽 화살표 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3125,7 +3249,7 @@
         <xdr:cNvPr id="46" name="왼쪽/오른쪽 화살표 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3188,7 +3312,7 @@
         <xdr:cNvPr id="47" name="왼쪽/오른쪽 화살표 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3251,7 +3375,7 @@
         <xdr:cNvPr id="48" name="왼쪽/오른쪽 화살표 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3314,7 +3438,7 @@
         <xdr:cNvPr id="49" name="왼쪽/오른쪽 화살표 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3377,7 +3501,7 @@
         <xdr:cNvPr id="50" name="왼쪽/오른쪽 화살표 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3440,7 +3564,7 @@
         <xdr:cNvPr id="51" name="왼쪽/오른쪽 화살표 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3503,7 +3627,7 @@
         <xdr:cNvPr id="52" name="왼쪽/오른쪽 화살표 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3566,7 +3690,7 @@
         <xdr:cNvPr id="53" name="왼쪽/오른쪽 화살표 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3629,7 +3753,7 @@
         <xdr:cNvPr id="54" name="왼쪽/오른쪽 화살표 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3692,7 +3816,7 @@
         <xdr:cNvPr id="56" name="순서도: 연결자 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3755,7 +3879,7 @@
         <xdr:cNvPr id="57" name="순서도: 연결자 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3818,7 +3942,7 @@
         <xdr:cNvPr id="58" name="순서도: 연결자 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3881,7 +4005,7 @@
         <xdr:cNvPr id="59" name="순서도: 연결자 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3944,7 +4068,7 @@
         <xdr:cNvPr id="60" name="순서도: 연결자 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4007,7 +4131,7 @@
         <xdr:cNvPr id="61" name="순서도: 연결자 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4070,7 +4194,7 @@
         <xdr:cNvPr id="62" name="순서도: 연결자 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4133,7 +4257,7 @@
         <xdr:cNvPr id="63" name="순서도: 연결자 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4196,7 +4320,7 @@
         <xdr:cNvPr id="64" name="순서도: 연결자 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4259,7 +4383,7 @@
         <xdr:cNvPr id="65" name="순서도: 연결자 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4322,7 +4446,7 @@
         <xdr:cNvPr id="67" name="직선 화살표 연결선 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4378,7 +4502,7 @@
         <xdr:cNvPr id="2" name="화살표: 오른쪽 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4B5519-B345-0239-5A11-B813719E869B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4B5519-B345-0239-5A11-B813719E869B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4438,7 +4562,7 @@
         <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4491,7 +4615,7 @@
         <xdr:cNvPr id="66" name="직선 화살표 연결선 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4544,7 +4668,7 @@
         <xdr:cNvPr id="68" name="직선 화살표 연결선 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4597,7 +4721,7 @@
         <xdr:cNvPr id="69" name="직선 화살표 연결선 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4650,7 +4774,7 @@
         <xdr:cNvPr id="70" name="직선 화살표 연결선 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4703,7 +4827,7 @@
         <xdr:cNvPr id="71" name="직선 화살표 연결선 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4756,7 +4880,7 @@
         <xdr:cNvPr id="72" name="직선 화살표 연결선 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4809,7 +4933,7 @@
         <xdr:cNvPr id="73" name="직선 화살표 연결선 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4862,7 +4986,7 @@
         <xdr:cNvPr id="74" name="직선 화살표 연결선 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4915,7 +5039,7 @@
         <xdr:cNvPr id="75" name="직선 화살표 연결선 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4968,7 +5092,7 @@
         <xdr:cNvPr id="76" name="직선 화살표 연결선 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5021,7 +5145,7 @@
         <xdr:cNvPr id="77" name="직선 화살표 연결선 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5074,7 +5198,7 @@
         <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A87D154-58EA-46AA-905A-F9EE55008DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A87D154-58EA-46AA-905A-F9EE55008DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5127,7 +5251,7 @@
         <xdr:cNvPr id="5" name="직선 화살표 연결선 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A67F7EA-CEDC-BD1B-477D-701BC7B67F41}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A67F7EA-CEDC-BD1B-477D-701BC7B67F41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5166,9 +5290,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5206,7 +5330,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5278,7 +5402,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5451,11 +5575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G6:FU182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G6:FU226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DF80" sqref="DF80"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W217" sqref="W217:W218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6543,26 +6667,8 @@
     </row>
     <row r="93" spans="12:177" x14ac:dyDescent="0.3">
       <c r="Q93" s="10"/>
-      <c r="R93" t="s">
-        <v>32</v>
-      </c>
-      <c r="W93" t="s">
-        <v>38</v>
-      </c>
       <c r="AN93" s="11"/>
-      <c r="AP93" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU93" t="s">
-        <v>39</v>
-      </c>
       <c r="BJ93" s="11"/>
-      <c r="BL93" t="s">
-        <v>35</v>
-      </c>
-      <c r="BS93" t="s">
-        <v>38</v>
-      </c>
       <c r="CE93" s="10"/>
       <c r="CF93" s="21" t="s">
         <v>72</v>
@@ -7952,27 +8058,169 @@
       <c r="AL172" s="5"/>
       <c r="AM172" s="4"/>
     </row>
-    <row r="179" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L179" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="180" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L180" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="181" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L181" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="182" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L182" t="s">
         <v>68</v>
       </c>
     </row>
+    <row r="187" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L187" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="189" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L189" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="191" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L191" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="192" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M192" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="194" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L194" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="195" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="M195" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="196" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="M196" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="197" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="M197" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="M199" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="200" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="P200" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="202" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="P202" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="203" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="P203" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="204" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="P204" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="206" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L206" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="212" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L212" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="214" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L214" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="215" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L215" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="216" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L216" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="217" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L217" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="219" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L219" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z219" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA219" s="24"/>
+      <c r="AC219" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="220" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L220" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z220" s="24"/>
+      <c r="AA220" s="24"/>
+    </row>
+    <row r="221" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L221" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="222" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L222" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="224" spans="12:29" x14ac:dyDescent="0.3">
+      <c r="L224" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="225" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L225" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="226" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L226" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Z219:AA220"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7981,7 +8229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7994,7 +8242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/맵 형태 개발 정리.xlsx
+++ b/맵 형태 개발 정리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
   <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,6 +499,22 @@
   </si>
   <si>
     <t>상점 방 (윗부분을 대부분 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.10.18 기준 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 정사각형 방 퍼즐에 대해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 시간 동안 무언가를 생성하는 방. 그 시간 동안 지켜야함     =&gt; 얘를 엘리트 몹 vs 엘리트 몹 전투에서 쓰는애로 만들자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터렛을 사용하는 방 =&gt; 퍼즐을 풀어야만 터렛을 여러 개 정상적으로 작동할 수 있는 방.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,7 +871,7 @@
         <xdr:cNvPr id="7" name="왼쪽/오른쪽 화살표 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -918,7 +934,7 @@
         <xdr:cNvPr id="8" name="왼쪽/오른쪽 화살표 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -981,7 +997,7 @@
         <xdr:cNvPr id="9" name="왼쪽/오른쪽 화살표 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1044,7 +1060,7 @@
         <xdr:cNvPr id="10" name="왼쪽/오른쪽 화살표 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1123,7 @@
         <xdr:cNvPr id="11" name="왼쪽/오른쪽 화살표 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1170,7 +1186,7 @@
         <xdr:cNvPr id="12" name="왼쪽/오른쪽 화살표 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1233,7 +1249,7 @@
         <xdr:cNvPr id="13" name="왼쪽/오른쪽 화살표 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,7 +1312,7 @@
         <xdr:cNvPr id="14" name="왼쪽/오른쪽 화살표 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1375,7 @@
         <xdr:cNvPr id="15" name="왼쪽/오른쪽 화살표 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1438,7 @@
         <xdr:cNvPr id="16" name="왼쪽/오른쪽 화살표 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1501,7 @@
         <xdr:cNvPr id="17" name="왼쪽/오른쪽 화살표 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1564,7 @@
         <xdr:cNvPr id="18" name="왼쪽/오른쪽 화살표 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1627,7 @@
         <xdr:cNvPr id="19" name="왼쪽/오른쪽 화살표 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1690,7 @@
         <xdr:cNvPr id="20" name="왼쪽/오른쪽 화살표 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1753,7 @@
         <xdr:cNvPr id="21" name="왼쪽/오른쪽 화살표 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1816,7 @@
         <xdr:cNvPr id="22" name="왼쪽/오른쪽 화살표 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1879,7 @@
         <xdr:cNvPr id="23" name="왼쪽/오른쪽 화살표 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1942,7 @@
         <xdr:cNvPr id="24" name="왼쪽/오른쪽 화살표 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +2005,7 @@
         <xdr:cNvPr id="26" name="왼쪽/오른쪽 화살표 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2068,7 @@
         <xdr:cNvPr id="27" name="왼쪽/오른쪽 화살표 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2115,7 +2131,7 @@
         <xdr:cNvPr id="28" name="왼쪽/오른쪽 화살표 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2194,7 @@
         <xdr:cNvPr id="29" name="왼쪽/오른쪽 화살표 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2257,7 @@
         <xdr:cNvPr id="30" name="왼쪽/오른쪽 화살표 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2320,7 @@
         <xdr:cNvPr id="31" name="왼쪽/오른쪽 화살표 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2383,7 @@
         <xdr:cNvPr id="32" name="왼쪽/오른쪽 화살표 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2446,7 @@
         <xdr:cNvPr id="33" name="왼쪽/오른쪽 화살표 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2509,7 @@
         <xdr:cNvPr id="34" name="왼쪽/오른쪽 화살표 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2572,7 @@
         <xdr:cNvPr id="35" name="왼쪽/오른쪽 화살표 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2635,7 @@
         <xdr:cNvPr id="36" name="왼쪽/오른쪽 화살표 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2698,7 @@
         <xdr:cNvPr id="37" name="왼쪽/오른쪽 화살표 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +2761,7 @@
         <xdr:cNvPr id="38" name="왼쪽/오른쪽 화살표 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,7 +2824,7 @@
         <xdr:cNvPr id="39" name="왼쪽/오른쪽 화살표 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2887,7 @@
         <xdr:cNvPr id="40" name="왼쪽/오른쪽 화살표 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +2950,7 @@
         <xdr:cNvPr id="41" name="왼쪽/오른쪽 화살표 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,7 +3013,7 @@
         <xdr:cNvPr id="42" name="왼쪽/오른쪽 화살표 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3076,7 @@
         <xdr:cNvPr id="43" name="왼쪽/오른쪽 화살표 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3139,7 @@
         <xdr:cNvPr id="44" name="왼쪽/오른쪽 화살표 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,7 +3202,7 @@
         <xdr:cNvPr id="45" name="왼쪽/오른쪽 화살표 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +3265,7 @@
         <xdr:cNvPr id="46" name="왼쪽/오른쪽 화살표 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,7 +3328,7 @@
         <xdr:cNvPr id="47" name="왼쪽/오른쪽 화살표 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3375,7 +3391,7 @@
         <xdr:cNvPr id="48" name="왼쪽/오른쪽 화살표 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3438,7 +3454,7 @@
         <xdr:cNvPr id="49" name="왼쪽/오른쪽 화살표 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3517,7 @@
         <xdr:cNvPr id="50" name="왼쪽/오른쪽 화살표 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3564,7 +3580,7 @@
         <xdr:cNvPr id="51" name="왼쪽/오른쪽 화살표 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3627,7 +3643,7 @@
         <xdr:cNvPr id="52" name="왼쪽/오른쪽 화살표 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3690,7 +3706,7 @@
         <xdr:cNvPr id="53" name="왼쪽/오른쪽 화살표 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3753,7 +3769,7 @@
         <xdr:cNvPr id="54" name="왼쪽/오른쪽 화살표 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3816,7 +3832,7 @@
         <xdr:cNvPr id="56" name="순서도: 연결자 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3879,7 +3895,7 @@
         <xdr:cNvPr id="57" name="순서도: 연결자 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3942,7 +3958,7 @@
         <xdr:cNvPr id="58" name="순서도: 연결자 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4005,7 +4021,7 @@
         <xdr:cNvPr id="59" name="순서도: 연결자 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4068,7 +4084,7 @@
         <xdr:cNvPr id="60" name="순서도: 연결자 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4131,7 +4147,7 @@
         <xdr:cNvPr id="61" name="순서도: 연결자 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4194,7 +4210,7 @@
         <xdr:cNvPr id="62" name="순서도: 연결자 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4257,7 +4273,7 @@
         <xdr:cNvPr id="63" name="순서도: 연결자 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4320,7 +4336,7 @@
         <xdr:cNvPr id="64" name="순서도: 연결자 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4383,7 +4399,7 @@
         <xdr:cNvPr id="65" name="순서도: 연결자 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4446,7 +4462,7 @@
         <xdr:cNvPr id="67" name="직선 화살표 연결선 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4502,7 +4518,7 @@
         <xdr:cNvPr id="2" name="화살표: 오른쪽 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4B5519-B345-0239-5A11-B813719E869B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E4B5519-B345-0239-5A11-B813719E869B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4562,7 +4578,7 @@
         <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4615,7 +4631,7 @@
         <xdr:cNvPr id="66" name="직선 화살표 연결선 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4668,7 +4684,7 @@
         <xdr:cNvPr id="68" name="직선 화살표 연결선 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4721,7 +4737,7 @@
         <xdr:cNvPr id="69" name="직선 화살표 연결선 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4774,7 +4790,7 @@
         <xdr:cNvPr id="70" name="직선 화살표 연결선 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4827,7 +4843,7 @@
         <xdr:cNvPr id="71" name="직선 화살표 연결선 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4880,7 +4896,7 @@
         <xdr:cNvPr id="72" name="직선 화살표 연결선 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4933,7 +4949,7 @@
         <xdr:cNvPr id="73" name="직선 화살표 연결선 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4986,7 +5002,7 @@
         <xdr:cNvPr id="74" name="직선 화살표 연결선 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5039,7 +5055,7 @@
         <xdr:cNvPr id="75" name="직선 화살표 연결선 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5092,7 +5108,7 @@
         <xdr:cNvPr id="76" name="직선 화살표 연결선 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5145,7 +5161,7 @@
         <xdr:cNvPr id="77" name="직선 화살표 연결선 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5198,7 +5214,7 @@
         <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A87D154-58EA-46AA-905A-F9EE55008DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A87D154-58EA-46AA-905A-F9EE55008DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5251,7 +5267,7 @@
         <xdr:cNvPr id="5" name="직선 화살표 연결선 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A67F7EA-CEDC-BD1B-477D-701BC7B67F41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A67F7EA-CEDC-BD1B-477D-701BC7B67F41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5576,10 +5592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G6:FU226"/>
+  <dimension ref="G6:FU237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W217" sqref="W217:W218"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L236" sqref="L236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8217,6 +8233,26 @@
         <v>119</v>
       </c>
     </row>
+    <row r="232" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L232" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="233" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L233" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="235" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L235" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="237" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L237" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="Z219:AA220"/>
